--- a/data/SEV_v2_-_Session_2_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Session_2_-_Raw_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duboisa7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duboisa7\Documents\GitKraken\SEV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705B5ED-60C8-4537-A1AE-D89DFB67279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D031320-C599-4173-A059-7241BDF79D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1800" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="78">
   <si>
     <t>Participant Code</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>1030</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
   </si>
   <si>
     <t>Sample ID</t>
@@ -808,8 +823,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E46A7E-B0DD-4FE9-AA19-55055930AC40}">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C19A62-4C82-4C52-9FAF-F785AD71FDAC}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:J8"/>
@@ -1356,6 +1371,76 @@
         <v>44735.813523356483</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1031</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="8">
+        <v>44736.671038576387</v>
+      </c>
+      <c r="D42" s="8">
+        <v>44736.688838078706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1032</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="8">
+        <v>44736.743509537038</v>
+      </c>
+      <c r="D43" s="8">
+        <v>44736.763300868057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1033</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="8">
+        <v>44736.776628634259</v>
+      </c>
+      <c r="D44" s="8">
+        <v>44736.795772152778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1034</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44736.784168900464</v>
+      </c>
+      <c r="D45" s="8">
+        <v>44736.801254942133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1035</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="8">
+        <v>44736.795530138887</v>
+      </c>
+      <c r="D46" s="8">
+        <v>44736.812141921298</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A6:J6"/>
@@ -1373,14 +1458,14 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2 A9:D41" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D2 A9:D46" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E94F08F-18AB-4E4D-ABDB-F9F8E3A596B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4204BB-C1F7-4457-B323-994A5BD8A5A5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1397,115 +1482,115 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1603,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DBD92C-BF7F-4E3C-BB02-F4B65F5599A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E9FAC-3875-4F16-87C8-B4F71A8F5C44}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1549,21 +1634,21 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -1580,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -2040,6 +2125,91 @@
       </c>
       <c r="E31" s="11">
         <v>1021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44736.671038576387</v>
+      </c>
+      <c r="D32" s="10">
+        <v>44736.671038576387</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44736.743509537038</v>
+      </c>
+      <c r="D33" s="10">
+        <v>44736.743509537038</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44736.776628634259</v>
+      </c>
+      <c r="D34" s="10">
+        <v>44736.776628634259</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44736.784168900464</v>
+      </c>
+      <c r="D35" s="10">
+        <v>44736.784168900464</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44736.795530138887</v>
+      </c>
+      <c r="D36" s="10">
+        <v>44736.795530138887</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -2050,20 +2220,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E31" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EAFCBF-1502-46A7-A380-0606F1626AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14A5831-3106-45B1-BC76-EA87A225A85D}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:J368"/>
+  <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
@@ -2092,30 +2262,30 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="I2" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2132,22 +2302,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -2170,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I5" s="20">
         <v>11</v>
@@ -2202,10 +2372,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I6" s="11">
         <v>10</v>
@@ -2234,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I7" s="11">
         <v>15</v>
@@ -2266,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11">
         <v>19</v>
@@ -2298,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I9" s="11">
         <v>10</v>
@@ -2330,10 +2500,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I10" s="11">
         <v>12</v>
@@ -2362,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I11" s="11">
         <v>36</v>
@@ -2394,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I12" s="11">
         <v>9</v>
@@ -2426,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11">
         <v>19</v>
@@ -2458,10 +2628,10 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I14" s="11">
         <v>36</v>
@@ -2490,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I15" s="11">
         <v>5</v>
@@ -2522,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I16" s="11">
         <v>15</v>
@@ -2554,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I17" s="11">
         <v>11</v>
@@ -2586,10 +2756,10 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I18" s="11">
         <v>19</v>
@@ -2618,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I19" s="11">
         <v>14</v>
@@ -2650,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I20" s="11">
         <v>14</v>
@@ -2682,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I21" s="11">
         <v>34</v>
@@ -2714,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I22" s="11">
         <v>9</v>
@@ -2746,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I23" s="11">
         <v>22</v>
@@ -2778,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I24" s="11">
         <v>12</v>
@@ -2810,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I25" s="11">
         <v>6</v>
@@ -2842,10 +3012,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I26" s="11">
         <v>35</v>
@@ -2874,10 +3044,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" s="11">
         <v>33</v>
@@ -2906,10 +3076,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I28" s="11">
         <v>36</v>
@@ -2938,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I29" s="11">
         <v>3</v>
@@ -2970,10 +3140,10 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I30" s="11">
         <v>8</v>
@@ -3002,10 +3172,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I31" s="11">
         <v>13</v>
@@ -3034,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I32" s="11">
         <v>10</v>
@@ -3066,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I33" s="11">
         <v>18</v>
@@ -3098,10 +3268,10 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I34" s="11">
         <v>22</v>
@@ -3130,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I35" s="11">
         <v>1</v>
@@ -3162,10 +3332,10 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I36" s="11">
         <v>22</v>
@@ -3194,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I37" s="11">
         <v>16</v>
@@ -3226,10 +3396,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I38" s="11">
         <v>14</v>
@@ -3258,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I39" s="11">
         <v>24</v>
@@ -3290,10 +3460,10 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I40" s="11">
         <v>13</v>
@@ -3322,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I41" s="11">
         <v>8</v>
@@ -3354,10 +3524,10 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I42" s="11">
         <v>13</v>
@@ -3386,10 +3556,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I43" s="11">
         <v>14</v>
@@ -3418,10 +3588,10 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I44" s="11">
         <v>16</v>
@@ -3450,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I45" s="11">
         <v>14</v>
@@ -3482,10 +3652,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I46" s="11">
         <v>12</v>
@@ -3514,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I47" s="11">
         <v>15</v>
@@ -3546,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I48" s="11">
         <v>9</v>
@@ -3578,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I49" s="11">
         <v>10</v>
@@ -3610,10 +3780,10 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I50" s="11">
         <v>6</v>
@@ -3642,10 +3812,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I51" s="11">
         <v>26</v>
@@ -3674,10 +3844,10 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I52" s="11">
         <v>6</v>
@@ -3706,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I53" s="11">
         <v>11</v>
@@ -3738,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I54" s="11">
         <v>12</v>
@@ -3770,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I55" s="11">
         <v>8</v>
@@ -3802,10 +3972,10 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I56" s="11">
         <v>9</v>
@@ -3834,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I57" s="11">
         <v>16</v>
@@ -3866,10 +4036,10 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I58" s="11">
         <v>4</v>
@@ -3898,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I59" s="11">
         <v>16</v>
@@ -3930,10 +4100,10 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I60" s="11">
         <v>2</v>
@@ -3962,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I61" s="11">
         <v>10</v>
@@ -3994,10 +4164,10 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I62" s="11">
         <v>5</v>
@@ -4026,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I63" s="11">
         <v>20</v>
@@ -4058,10 +4228,10 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I64" s="11">
         <v>10</v>
@@ -4090,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I65" s="11">
         <v>10</v>
@@ -4122,10 +4292,10 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I66" s="11">
         <v>15</v>
@@ -4154,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I67" s="11">
         <v>5</v>
@@ -4186,10 +4356,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I68" s="11">
         <v>10</v>
@@ -4218,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H69" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I69" s="11">
         <v>25</v>
@@ -4250,10 +4420,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I70" s="11">
         <v>10</v>
@@ -4282,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I71" s="11">
         <v>15</v>
@@ -4314,10 +4484,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I72" s="11">
         <v>5</v>
@@ -4346,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I73" s="11">
         <v>5</v>
@@ -4378,10 +4548,10 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I74" s="11">
         <v>10</v>
@@ -4410,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I75" s="11">
         <v>9</v>
@@ -4442,10 +4612,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I76" s="11">
         <v>25</v>
@@ -4474,10 +4644,10 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I77" s="11">
         <v>21</v>
@@ -4506,10 +4676,10 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I78" s="11">
         <v>25</v>
@@ -4538,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I79" s="11">
         <v>12</v>
@@ -4570,10 +4740,10 @@
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I80" s="11">
         <v>23</v>
@@ -4602,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H81" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I81" s="11">
         <v>28</v>
@@ -4634,10 +4804,10 @@
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H82" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I82" s="11">
         <v>31</v>
@@ -4666,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I83" s="11">
         <v>13</v>
@@ -4698,10 +4868,10 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H84" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I84" s="11">
         <v>24</v>
@@ -4730,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H85" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I85" s="11">
         <v>10</v>
@@ -4762,10 +4932,10 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H86" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I86" s="11">
         <v>25</v>
@@ -4794,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I87" s="11">
         <v>22</v>
@@ -4826,10 +4996,10 @@
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I88" s="11">
         <v>36</v>
@@ -4858,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I89" s="11">
         <v>57</v>
@@ -4890,10 +5060,10 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I90" s="11">
         <v>71</v>
@@ -4922,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I91" s="11">
         <v>50</v>
@@ -4954,10 +5124,10 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I92" s="11">
         <v>61</v>
@@ -4986,10 +5156,10 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I93" s="11">
         <v>73</v>
@@ -5018,10 +5188,10 @@
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I94" s="11">
         <v>81</v>
@@ -5050,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H95" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I95" s="11">
         <v>61</v>
@@ -5082,10 +5252,10 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H96" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I96" s="11">
         <v>57</v>
@@ -5114,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I97" s="11">
         <v>49</v>
@@ -5146,10 +5316,10 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H98" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I98" s="11">
         <v>55</v>
@@ -5178,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H99" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I99" s="11">
         <v>76</v>
@@ -5210,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H100" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I100" s="11">
         <v>54</v>
@@ -5242,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H101" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I101" s="11">
         <v>59</v>
@@ -5274,10 +5444,10 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H102" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I102" s="11">
         <v>55</v>
@@ -5306,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I103" s="11">
         <v>3</v>
@@ -5338,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I104" s="11">
         <v>3</v>
@@ -5370,10 +5540,10 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I105" s="11">
         <v>3</v>
@@ -5402,10 +5572,10 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I106" s="11">
         <v>2</v>
@@ -5434,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H107" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I107" s="11">
         <v>5</v>
@@ -5466,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I108" s="11">
         <v>3</v>
@@ -5498,10 +5668,10 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H109" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I109" s="11">
         <v>4</v>
@@ -5530,10 +5700,10 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H110" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I110" s="11">
         <v>3</v>
@@ -5562,10 +5732,10 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H111" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I111" s="11">
         <v>4</v>
@@ -5594,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H112" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I112" s="11">
         <v>3</v>
@@ -5626,10 +5796,10 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H113" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I113" s="11">
         <v>4</v>
@@ -5658,10 +5828,10 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H114" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I114" s="11">
         <v>4</v>
@@ -5690,10 +5860,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I115" s="11">
         <v>2</v>
@@ -5722,10 +5892,10 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I116" s="11">
         <v>5</v>
@@ -5754,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I117" s="11">
         <v>12</v>
@@ -5786,10 +5956,10 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I118" s="11">
         <v>15</v>
@@ -5818,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H119" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I119" s="11">
         <v>15</v>
@@ -5850,10 +6020,10 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I120" s="11">
         <v>23</v>
@@ -5882,10 +6052,10 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H121" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I121" s="11">
         <v>10</v>
@@ -5914,10 +6084,10 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H122" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I122" s="11">
         <v>12</v>
@@ -5946,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H123" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I123" s="11">
         <v>15</v>
@@ -5978,10 +6148,10 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H124" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I124" s="11">
         <v>10</v>
@@ -6010,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H125" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I125" s="11">
         <v>7</v>
@@ -6042,10 +6212,10 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H126" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I126" s="11">
         <v>12</v>
@@ -6074,10 +6244,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H127" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I127" s="11">
         <v>13</v>
@@ -6106,10 +6276,10 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H128" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I128" s="11">
         <v>12</v>
@@ -6138,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H129" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I129" s="11">
         <v>17</v>
@@ -6170,10 +6340,10 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I130" s="11">
         <v>19</v>
@@ -6202,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H131" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I131" s="11">
         <v>14</v>
@@ -6234,10 +6404,10 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H132" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I132" s="11">
         <v>11</v>
@@ -6266,10 +6436,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H133" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I133" s="11">
         <v>8</v>
@@ -6298,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H134" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I134" s="11">
         <v>11</v>
@@ -6330,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H135" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I135" s="11">
         <v>7</v>
@@ -6362,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H136" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I136" s="11">
         <v>3</v>
@@ -6394,10 +6564,10 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H137" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I137" s="11">
         <v>12</v>
@@ -6426,10 +6596,10 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H138" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I138" s="11">
         <v>8</v>
@@ -6458,10 +6628,10 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H139" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I139" s="11">
         <v>7</v>
@@ -6490,10 +6660,10 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I140" s="11">
         <v>3</v>
@@ -6522,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H141" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I141" s="11">
         <v>6</v>
@@ -6554,10 +6724,10 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H142" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I142" s="11">
         <v>6</v>
@@ -6586,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H143" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I143" s="11">
         <v>4</v>
@@ -6618,10 +6788,10 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H144" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I144" s="11">
         <v>3</v>
@@ -6650,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H145" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I145" s="11">
         <v>44</v>
@@ -6682,10 +6852,10 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H146" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I146" s="11">
         <v>41</v>
@@ -6714,10 +6884,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H147" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I147" s="11">
         <v>7</v>
@@ -6746,10 +6916,10 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I148" s="11">
         <v>25</v>
@@ -6778,10 +6948,10 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H149" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I149" s="11">
         <v>7</v>
@@ -6810,10 +6980,10 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H150" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I150" s="11">
         <v>46</v>
@@ -6842,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H151" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I151" s="11">
         <v>32</v>
@@ -6874,10 +7044,10 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H152" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I152" s="11">
         <v>49</v>
@@ -6906,10 +7076,10 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H153" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I153" s="11">
         <v>5</v>
@@ -6938,10 +7108,10 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H154" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I154" s="11">
         <v>47</v>
@@ -6970,10 +7140,10 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H155" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I155" s="11">
         <v>23</v>
@@ -7002,10 +7172,10 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H156" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I156" s="11">
         <v>46</v>
@@ -7034,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H157" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I157" s="11">
         <v>9</v>
@@ -7066,10 +7236,10 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H158" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I158" s="11">
         <v>46</v>
@@ -7098,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H159" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I159" s="11">
         <v>16</v>
@@ -7130,10 +7300,10 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H160" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I160" s="11">
         <v>4</v>
@@ -7162,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H161" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I161" s="11">
         <v>15</v>
@@ -7194,10 +7364,10 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H162" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I162" s="11">
         <v>22</v>
@@ -7226,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H163" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I163" s="11">
         <v>29</v>
@@ -7258,10 +7428,10 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H164" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I164" s="11">
         <v>21</v>
@@ -7290,10 +7460,10 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H165" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I165" s="11">
         <v>20</v>
@@ -7322,10 +7492,10 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H166" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I166" s="11">
         <v>5</v>
@@ -7354,10 +7524,10 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I167" s="11">
         <v>6</v>
@@ -7386,10 +7556,10 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H168" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I168" s="11">
         <v>16</v>
@@ -7418,10 +7588,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H169" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I169" s="11">
         <v>2</v>
@@ -7450,10 +7620,10 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H170" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I170" s="11">
         <v>2</v>
@@ -7482,10 +7652,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H171" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I171" s="11">
         <v>3</v>
@@ -7514,10 +7684,10 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H172" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I172" s="11">
         <v>9</v>
@@ -7546,10 +7716,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H173" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I173" s="11">
         <v>9</v>
@@ -7578,10 +7748,10 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H174" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I174" s="11">
         <v>8</v>
@@ -7610,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H175" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I175" s="11">
         <v>10</v>
@@ -7642,10 +7812,10 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H176" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I176" s="11">
         <v>11</v>
@@ -7674,10 +7844,10 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H177" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I177" s="11">
         <v>10</v>
@@ -7706,10 +7876,10 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H178" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I178" s="11">
         <v>7</v>
@@ -7738,10 +7908,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H179" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I179" s="11">
         <v>12</v>
@@ -7770,10 +7940,10 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H180" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I180" s="11">
         <v>9</v>
@@ -7802,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H181" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I181" s="11">
         <v>9</v>
@@ -7834,10 +8004,10 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H182" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I182" s="11">
         <v>10</v>
@@ -7866,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H183" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I183" s="11">
         <v>11</v>
@@ -7898,10 +8068,10 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H184" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I184" s="11">
         <v>9</v>
@@ -7930,10 +8100,10 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H185" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I185" s="11">
         <v>10</v>
@@ -7962,10 +8132,10 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H186" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I186" s="11">
         <v>6</v>
@@ -7994,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H187" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I187" s="11">
         <v>22</v>
@@ -8026,10 +8196,10 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H188" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I188" s="11">
         <v>25</v>
@@ -8058,10 +8228,10 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H189" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I189" s="11">
         <v>42</v>
@@ -8090,10 +8260,10 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H190" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I190" s="11">
         <v>47</v>
@@ -8122,10 +8292,10 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H191" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I191" s="11">
         <v>32</v>
@@ -8154,10 +8324,10 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H192" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I192" s="11">
         <v>45</v>
@@ -8186,10 +8356,10 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H193" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I193" s="11">
         <v>48</v>
@@ -8218,10 +8388,10 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H194" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I194" s="11">
         <v>25</v>
@@ -8250,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H195" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I195" s="11">
         <v>26</v>
@@ -8282,10 +8452,10 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H196" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I196" s="11">
         <v>38</v>
@@ -8314,10 +8484,10 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H197" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I197" s="11">
         <v>49</v>
@@ -8346,10 +8516,10 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H198" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I198" s="11">
         <v>28</v>
@@ -8378,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H199" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I199" s="11">
         <v>11</v>
@@ -8410,10 +8580,10 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H200" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I200" s="11">
         <v>8</v>
@@ -8442,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H201" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I201" s="11">
         <v>16</v>
@@ -8474,10 +8644,10 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H202" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I202" s="11">
         <v>36</v>
@@ -8506,10 +8676,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H203" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I203" s="11">
         <v>36</v>
@@ -8538,10 +8708,10 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H204" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I204" s="11">
         <v>20</v>
@@ -8570,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H205" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I205" s="11">
         <v>35</v>
@@ -8602,10 +8772,10 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H206" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I206" s="11">
         <v>17</v>
@@ -8634,10 +8804,10 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H207" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I207" s="11">
         <v>28</v>
@@ -8666,10 +8836,10 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H208" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I208" s="11">
         <v>21</v>
@@ -8698,10 +8868,10 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H209" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I209" s="11">
         <v>28</v>
@@ -8730,10 +8900,10 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H210" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I210" s="11">
         <v>34</v>
@@ -8762,10 +8932,10 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H211" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I211" s="11">
         <v>22</v>
@@ -8794,10 +8964,10 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H212" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I212" s="11">
         <v>12</v>
@@ -8826,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H213" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I213" s="11">
         <v>13</v>
@@ -8858,10 +9028,10 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H214" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I214" s="11">
         <v>28</v>
@@ -8890,10 +9060,10 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H215" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I215" s="11">
         <v>62</v>
@@ -8922,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H216" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I216" s="11">
         <v>38</v>
@@ -8954,10 +9124,10 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H217" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I217" s="11">
         <v>52</v>
@@ -8986,10 +9156,10 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H218" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I218" s="11">
         <v>49</v>
@@ -9018,10 +9188,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H219" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I219" s="11">
         <v>58</v>
@@ -9050,10 +9220,10 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H220" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I220" s="11">
         <v>43</v>
@@ -9082,10 +9252,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H221" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I221" s="11">
         <v>55</v>
@@ -9114,10 +9284,10 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H222" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I222" s="11">
         <v>45</v>
@@ -9146,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H223" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I223" s="11">
         <v>53</v>
@@ -9178,10 +9348,10 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H224" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I224" s="11">
         <v>53</v>
@@ -9210,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H225" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I225" s="11">
         <v>38</v>
@@ -9242,10 +9412,10 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H226" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I226" s="11">
         <v>33</v>
@@ -9274,10 +9444,10 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H227" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I227" s="11">
         <v>49</v>
@@ -9306,10 +9476,10 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H228" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I228" s="11">
         <v>56</v>
@@ -9338,10 +9508,10 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H229" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I229" s="11">
         <v>83</v>
@@ -9370,10 +9540,10 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H230" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I230" s="11">
         <v>81</v>
@@ -9402,10 +9572,10 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H231" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I231" s="11">
         <v>65</v>
@@ -9434,10 +9604,10 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H232" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I232" s="11">
         <v>36</v>
@@ -9466,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H233" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I233" s="11">
         <v>56</v>
@@ -9498,10 +9668,10 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H234" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I234" s="11">
         <v>55</v>
@@ -9530,10 +9700,10 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H235" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I235" s="11">
         <v>71</v>
@@ -9562,10 +9732,10 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H236" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I236" s="11">
         <v>78</v>
@@ -9594,10 +9764,10 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H237" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I237" s="11">
         <v>74</v>
@@ -9626,10 +9796,10 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H238" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I238" s="11">
         <v>91</v>
@@ -9658,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H239" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I239" s="11">
         <v>63</v>
@@ -9690,10 +9860,10 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H240" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I240" s="11">
         <v>44</v>
@@ -9722,10 +9892,10 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H241" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I241" s="11">
         <v>79</v>
@@ -9754,10 +9924,10 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H242" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I242" s="11">
         <v>70</v>
@@ -9786,10 +9956,10 @@
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H243" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I243" s="11">
         <v>3</v>
@@ -9818,10 +9988,10 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H244" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I244" s="11">
         <v>4</v>
@@ -9850,10 +10020,10 @@
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H245" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I245" s="11">
         <v>7</v>
@@ -9882,10 +10052,10 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H246" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I246" s="11">
         <v>2</v>
@@ -9914,10 +10084,10 @@
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H247" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I247" s="11">
         <v>5</v>
@@ -9946,10 +10116,10 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H248" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I248" s="11">
         <v>10</v>
@@ -9978,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H249" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I249" s="11">
         <v>7</v>
@@ -10010,10 +10180,10 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H250" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I250" s="11">
         <v>9</v>
@@ -10042,10 +10212,10 @@
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H251" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I251" s="11">
         <v>4</v>
@@ -10074,10 +10244,10 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H252" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I252" s="11">
         <v>4</v>
@@ -10106,10 +10276,10 @@
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H253" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I253" s="11">
         <v>3</v>
@@ -10138,10 +10308,10 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H254" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I254" s="11">
         <v>2</v>
@@ -10170,10 +10340,10 @@
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H255" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I255" s="11">
         <v>3</v>
@@ -10202,10 +10372,10 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H256" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I256" s="11">
         <v>7</v>
@@ -10234,10 +10404,10 @@
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H257" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I257" s="11">
         <v>5</v>
@@ -10266,10 +10436,10 @@
         <v>2</v>
       </c>
       <c r="G258" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H258" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I258" s="11">
         <v>11</v>
@@ -10298,10 +10468,10 @@
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H259" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I259" s="11">
         <v>0</v>
@@ -10330,10 +10500,10 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H260" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I260" s="11">
         <v>18</v>
@@ -10362,10 +10532,10 @@
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H261" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I261" s="11">
         <v>8</v>
@@ -10394,10 +10564,10 @@
         <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H262" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I262" s="11">
         <v>6</v>
@@ -10426,10 +10596,10 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H263" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I263" s="11">
         <v>1</v>
@@ -10458,10 +10628,10 @@
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H264" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I264" s="11">
         <v>12</v>
@@ -10490,10 +10660,10 @@
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H265" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I265" s="11">
         <v>6</v>
@@ -10522,10 +10692,10 @@
         <v>2</v>
       </c>
       <c r="G266" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H266" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I266" s="11">
         <v>8</v>
@@ -10554,10 +10724,10 @@
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H267" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I267" s="11">
         <v>3</v>
@@ -10586,10 +10756,10 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H268" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I268" s="11">
         <v>8</v>
@@ -10618,10 +10788,10 @@
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H269" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I269" s="11">
         <v>3</v>
@@ -10650,10 +10820,10 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H270" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I270" s="11">
         <v>4</v>
@@ -10682,10 +10852,10 @@
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H271" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I271" s="11">
         <v>8</v>
@@ -10714,10 +10884,10 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H272" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I272" s="11">
         <v>8</v>
@@ -10746,10 +10916,10 @@
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H273" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I273" s="11">
         <v>9</v>
@@ -10778,10 +10948,10 @@
         <v>2</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H274" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I274" s="11">
         <v>8</v>
@@ -10810,10 +10980,10 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H275" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I275" s="11">
         <v>3</v>
@@ -10842,10 +11012,10 @@
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H276" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I276" s="11">
         <v>8</v>
@@ -10874,10 +11044,10 @@
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H277" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I277" s="11">
         <v>15</v>
@@ -10906,10 +11076,10 @@
         <v>2</v>
       </c>
       <c r="G278" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H278" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I278" s="11">
         <v>17</v>
@@ -10938,10 +11108,10 @@
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H279" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I279" s="11">
         <v>6</v>
@@ -10970,10 +11140,10 @@
         <v>2</v>
       </c>
       <c r="G280" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H280" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I280" s="11">
         <v>4</v>
@@ -11002,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H281" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I281" s="11">
         <v>3</v>
@@ -11034,10 +11204,10 @@
         <v>2</v>
       </c>
       <c r="G282" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H282" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I282" s="11">
         <v>8</v>
@@ -11066,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H283" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I283" s="11">
         <v>1</v>
@@ -11098,10 +11268,10 @@
         <v>2</v>
       </c>
       <c r="G284" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H284" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I284" s="11">
         <v>6</v>
@@ -11130,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H285" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I285" s="11">
         <v>70</v>
@@ -11162,10 +11332,10 @@
         <v>2</v>
       </c>
       <c r="G286" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H286" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I286" s="11">
         <v>5</v>
@@ -11194,10 +11364,10 @@
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H287" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I287" s="11">
         <v>10</v>
@@ -11226,10 +11396,10 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H288" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I288" s="11">
         <v>5</v>
@@ -11258,10 +11428,10 @@
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H289" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I289" s="11">
         <v>5</v>
@@ -11290,10 +11460,10 @@
         <v>2</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H290" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I290" s="11">
         <v>5</v>
@@ -11322,10 +11492,10 @@
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H291" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I291" s="11">
         <v>5</v>
@@ -11354,10 +11524,10 @@
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H292" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I292" s="11">
         <v>10</v>
@@ -11386,10 +11556,10 @@
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H293" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I293" s="11">
         <v>5</v>
@@ -11418,10 +11588,10 @@
         <v>2</v>
       </c>
       <c r="G294" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H294" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I294" s="11">
         <v>2</v>
@@ -11450,10 +11620,10 @@
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H295" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I295" s="11">
         <v>5</v>
@@ -11482,10 +11652,10 @@
         <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H296" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I296" s="11">
         <v>5</v>
@@ -11514,10 +11684,10 @@
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H297" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I297" s="11">
         <v>5</v>
@@ -11546,10 +11716,10 @@
         <v>2</v>
       </c>
       <c r="G298" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H298" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I298" s="11">
         <v>0</v>
@@ -11578,10 +11748,10 @@
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H299" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I299" s="11">
         <v>5</v>
@@ -11610,10 +11780,10 @@
         <v>2</v>
       </c>
       <c r="G300" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H300" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I300" s="11">
         <v>8</v>
@@ -11642,10 +11812,10 @@
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H301" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I301" s="11">
         <v>2</v>
@@ -11674,10 +11844,10 @@
         <v>2</v>
       </c>
       <c r="G302" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H302" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I302" s="11">
         <v>3</v>
@@ -11706,10 +11876,10 @@
         <v>1</v>
       </c>
       <c r="G303" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H303" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I303" s="11">
         <v>6</v>
@@ -11738,10 +11908,10 @@
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H304" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I304" s="11">
         <v>5</v>
@@ -11770,10 +11940,10 @@
         <v>1</v>
       </c>
       <c r="G305" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H305" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I305" s="11">
         <v>4</v>
@@ -11802,10 +11972,10 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H306" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I306" s="11">
         <v>7</v>
@@ -11834,10 +12004,10 @@
         <v>1</v>
       </c>
       <c r="G307" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H307" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I307" s="11">
         <v>5</v>
@@ -11866,10 +12036,10 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H308" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I308" s="11">
         <v>9</v>
@@ -11898,10 +12068,10 @@
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H309" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I309" s="11">
         <v>4</v>
@@ -11930,10 +12100,10 @@
         <v>2</v>
       </c>
       <c r="G310" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H310" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I310" s="11">
         <v>4</v>
@@ -11962,10 +12132,10 @@
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H311" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I311" s="11">
         <v>3</v>
@@ -11994,10 +12164,10 @@
         <v>2</v>
       </c>
       <c r="G312" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H312" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I312" s="11">
         <v>6</v>
@@ -12026,10 +12196,10 @@
         <v>1</v>
       </c>
       <c r="G313" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H313" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I313" s="11">
         <v>25</v>
@@ -12058,10 +12228,10 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H314" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I314" s="11">
         <v>30</v>
@@ -12090,10 +12260,10 @@
         <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H315" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I315" s="11">
         <v>12</v>
@@ -12122,10 +12292,10 @@
         <v>2</v>
       </c>
       <c r="G316" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H316" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I316" s="11">
         <v>15</v>
@@ -12154,10 +12324,10 @@
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H317" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I317" s="11">
         <v>30</v>
@@ -12186,10 +12356,10 @@
         <v>2</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H318" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I318" s="11">
         <v>17</v>
@@ -12218,10 +12388,10 @@
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H319" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I319" s="11">
         <v>20</v>
@@ -12250,10 +12420,10 @@
         <v>2</v>
       </c>
       <c r="G320" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H320" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I320" s="11">
         <v>15</v>
@@ -12282,10 +12452,10 @@
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H321" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I321" s="11">
         <v>22</v>
@@ -12314,10 +12484,10 @@
         <v>2</v>
       </c>
       <c r="G322" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H322" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I322" s="11">
         <v>14</v>
@@ -12346,10 +12516,10 @@
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H323" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I323" s="11">
         <v>16</v>
@@ -12378,10 +12548,10 @@
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H324" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I324" s="11">
         <v>11</v>
@@ -12410,10 +12580,10 @@
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H325" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I325" s="11">
         <v>33</v>
@@ -12442,10 +12612,10 @@
         <v>2</v>
       </c>
       <c r="G326" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H326" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I326" s="11">
         <v>17</v>
@@ -12474,10 +12644,10 @@
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H327" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I327" s="11">
         <v>51</v>
@@ -12506,10 +12676,10 @@
         <v>2</v>
       </c>
       <c r="G328" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H328" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I328" s="11">
         <v>46</v>
@@ -12538,10 +12708,10 @@
         <v>1</v>
       </c>
       <c r="G329" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H329" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I329" s="11">
         <v>34</v>
@@ -12570,10 +12740,10 @@
         <v>2</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H330" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I330" s="11">
         <v>45</v>
@@ -12602,10 +12772,10 @@
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H331" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I331" s="11">
         <v>24</v>
@@ -12634,10 +12804,10 @@
         <v>2</v>
       </c>
       <c r="G332" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H332" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I332" s="11">
         <v>60</v>
@@ -12666,10 +12836,10 @@
         <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H333" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I333" s="11">
         <v>50</v>
@@ -12698,10 +12868,10 @@
         <v>2</v>
       </c>
       <c r="G334" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H334" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I334" s="11">
         <v>51</v>
@@ -12730,10 +12900,10 @@
         <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H335" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I335" s="11">
         <v>30</v>
@@ -12762,10 +12932,10 @@
         <v>2</v>
       </c>
       <c r="G336" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H336" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I336" s="11">
         <v>34</v>
@@ -12794,10 +12964,10 @@
         <v>1</v>
       </c>
       <c r="G337" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H337" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I337" s="11">
         <v>15</v>
@@ -12826,10 +12996,10 @@
         <v>2</v>
       </c>
       <c r="G338" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H338" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I338" s="11">
         <v>30</v>
@@ -12858,10 +13028,10 @@
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H339" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I339" s="11">
         <v>11</v>
@@ -12890,10 +13060,10 @@
         <v>2</v>
       </c>
       <c r="G340" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H340" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I340" s="11">
         <v>42</v>
@@ -12922,10 +13092,10 @@
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H341" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I341" s="11">
         <v>29</v>
@@ -12954,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H342" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I342" s="11">
         <v>24</v>
@@ -12986,10 +13156,10 @@
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H343" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I343" s="11">
         <v>13</v>
@@ -13018,10 +13188,10 @@
         <v>2</v>
       </c>
       <c r="G344" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H344" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I344" s="11">
         <v>16</v>
@@ -13050,10 +13220,10 @@
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H345" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I345" s="11">
         <v>19</v>
@@ -13082,10 +13252,10 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H346" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I346" s="11">
         <v>22</v>
@@ -13114,10 +13284,10 @@
         <v>1</v>
       </c>
       <c r="G347" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H347" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I347" s="11">
         <v>19</v>
@@ -13146,10 +13316,10 @@
         <v>2</v>
       </c>
       <c r="G348" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H348" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I348" s="11">
         <v>8</v>
@@ -13178,10 +13348,10 @@
         <v>1</v>
       </c>
       <c r="G349" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H349" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I349" s="11">
         <v>6</v>
@@ -13210,10 +13380,10 @@
         <v>2</v>
       </c>
       <c r="G350" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H350" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I350" s="11">
         <v>6</v>
@@ -13242,10 +13412,10 @@
         <v>1</v>
       </c>
       <c r="G351" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H351" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I351" s="11">
         <v>11</v>
@@ -13274,10 +13444,10 @@
         <v>2</v>
       </c>
       <c r="G352" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H352" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I352" s="11">
         <v>14</v>
@@ -13306,10 +13476,10 @@
         <v>1</v>
       </c>
       <c r="G353" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H353" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I353" s="11">
         <v>13</v>
@@ -13338,10 +13508,10 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H354" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I354" s="11">
         <v>11</v>
@@ -13370,10 +13540,10 @@
         <v>1</v>
       </c>
       <c r="G355" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H355" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I355" s="11">
         <v>8</v>
@@ -13402,10 +13572,10 @@
         <v>2</v>
       </c>
       <c r="G356" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H356" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I356" s="11">
         <v>3</v>
@@ -13434,10 +13604,10 @@
         <v>1</v>
       </c>
       <c r="G357" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H357" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I357" s="11">
         <v>6</v>
@@ -13466,10 +13636,10 @@
         <v>2</v>
       </c>
       <c r="G358" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H358" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I358" s="11">
         <v>4</v>
@@ -13498,10 +13668,10 @@
         <v>1</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H359" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I359" s="11">
         <v>4</v>
@@ -13530,10 +13700,10 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H360" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I360" s="11">
         <v>12</v>
@@ -13562,10 +13732,10 @@
         <v>1</v>
       </c>
       <c r="G361" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H361" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I361" s="11">
         <v>9</v>
@@ -13594,10 +13764,10 @@
         <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H362" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I362" s="11">
         <v>9</v>
@@ -13626,10 +13796,10 @@
         <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H363" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I363" s="11">
         <v>6</v>
@@ -13658,10 +13828,10 @@
         <v>2</v>
       </c>
       <c r="G364" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H364" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I364" s="11">
         <v>13</v>
@@ -13690,10 +13860,10 @@
         <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H365" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I365" s="11">
         <v>4</v>
@@ -13722,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="G366" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H366" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I366" s="11">
         <v>5</v>
@@ -13754,10 +13924,10 @@
         <v>1</v>
       </c>
       <c r="G367" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H367" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I367" s="11">
         <v>11</v>
@@ -13786,16 +13956,2256 @@
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H368" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I368" s="11">
         <v>2</v>
       </c>
       <c r="J368">
         <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>1031</v>
+      </c>
+      <c r="B369" t="s">
+        <v>36</v>
+      </c>
+      <c r="C369" s="10">
+        <v>44736.675373923608</v>
+      </c>
+      <c r="D369" s="10">
+        <v>44736.675413333331</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>46</v>
+      </c>
+      <c r="H369" t="s">
+        <v>47</v>
+      </c>
+      <c r="I369" s="11">
+        <v>14</v>
+      </c>
+      <c r="J369">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>1031</v>
+      </c>
+      <c r="B370" t="s">
+        <v>36</v>
+      </c>
+      <c r="C370" s="10">
+        <v>44736.682234918982</v>
+      </c>
+      <c r="D370" s="10">
+        <v>44736.682295393519</v>
+      </c>
+      <c r="E370">
+        <v>9</v>
+      </c>
+      <c r="F370">
+        <v>2</v>
+      </c>
+      <c r="G370" t="s">
+        <v>46</v>
+      </c>
+      <c r="H370" t="s">
+        <v>47</v>
+      </c>
+      <c r="I370" s="11">
+        <v>9</v>
+      </c>
+      <c r="J370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>1031</v>
+      </c>
+      <c r="B371" t="s">
+        <v>36</v>
+      </c>
+      <c r="C371" s="10">
+        <v>44736.674071828704</v>
+      </c>
+      <c r="D371" s="10">
+        <v>44736.67414505787</v>
+      </c>
+      <c r="E371">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371" t="s">
+        <v>50</v>
+      </c>
+      <c r="H371" t="s">
+        <v>51</v>
+      </c>
+      <c r="I371" s="11">
+        <v>16</v>
+      </c>
+      <c r="J371">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>1031</v>
+      </c>
+      <c r="B372" t="s">
+        <v>36</v>
+      </c>
+      <c r="C372" s="10">
+        <v>44736.685982337964</v>
+      </c>
+      <c r="D372" s="10">
+        <v>44736.686026284726</v>
+      </c>
+      <c r="E372">
+        <v>12</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+      <c r="G372" t="s">
+        <v>50</v>
+      </c>
+      <c r="H372" t="s">
+        <v>51</v>
+      </c>
+      <c r="I372" s="11">
+        <v>11</v>
+      </c>
+      <c r="J372">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>1031</v>
+      </c>
+      <c r="B373" t="s">
+        <v>36</v>
+      </c>
+      <c r="C373" s="10">
+        <v>44736.672825138892</v>
+      </c>
+      <c r="D373" s="10">
+        <v>44736.672876770834</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373" t="s">
+        <v>53</v>
+      </c>
+      <c r="H373" t="s">
+        <v>54</v>
+      </c>
+      <c r="I373" s="11">
+        <v>15</v>
+      </c>
+      <c r="J373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>1031</v>
+      </c>
+      <c r="B374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374" s="10">
+        <v>44736.684744942133</v>
+      </c>
+      <c r="D374" s="10">
+        <v>44736.684779756943</v>
+      </c>
+      <c r="E374">
+        <v>11</v>
+      </c>
+      <c r="F374">
+        <v>2</v>
+      </c>
+      <c r="G374" t="s">
+        <v>53</v>
+      </c>
+      <c r="H374" t="s">
+        <v>54</v>
+      </c>
+      <c r="I374" s="11">
+        <v>14</v>
+      </c>
+      <c r="J374">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>1031</v>
+      </c>
+      <c r="B375" t="s">
+        <v>36</v>
+      </c>
+      <c r="C375" s="10">
+        <v>44736.671474525465</v>
+      </c>
+      <c r="D375" s="10">
+        <v>44736.671576412038</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>56</v>
+      </c>
+      <c r="H375" t="s">
+        <v>57</v>
+      </c>
+      <c r="I375" s="11">
+        <v>11</v>
+      </c>
+      <c r="J375">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>1031</v>
+      </c>
+      <c r="B376" t="s">
+        <v>36</v>
+      </c>
+      <c r="C376" s="10">
+        <v>44736.688726122688</v>
+      </c>
+      <c r="D376" s="10">
+        <v>44736.688838078706</v>
+      </c>
+      <c r="E376">
+        <v>14</v>
+      </c>
+      <c r="F376">
+        <v>2</v>
+      </c>
+      <c r="G376" t="s">
+        <v>56</v>
+      </c>
+      <c r="H376" t="s">
+        <v>57</v>
+      </c>
+      <c r="I376" s="11">
+        <v>10</v>
+      </c>
+      <c r="J376">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>1031</v>
+      </c>
+      <c r="B377" t="s">
+        <v>36</v>
+      </c>
+      <c r="C377" s="10">
+        <v>44736.676757534726</v>
+      </c>
+      <c r="D377" s="10">
+        <v>44736.676841828703</v>
+      </c>
+      <c r="E377">
+        <v>5</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377" t="s">
+        <v>59</v>
+      </c>
+      <c r="H377" t="s">
+        <v>60</v>
+      </c>
+      <c r="I377" s="11">
+        <v>11</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>1031</v>
+      </c>
+      <c r="B378" t="s">
+        <v>36</v>
+      </c>
+      <c r="C378" s="10">
+        <v>44736.680846064817</v>
+      </c>
+      <c r="D378" s="10">
+        <v>44736.68093667824</v>
+      </c>
+      <c r="E378">
+        <v>8</v>
+      </c>
+      <c r="F378">
+        <v>2</v>
+      </c>
+      <c r="G378" t="s">
+        <v>59</v>
+      </c>
+      <c r="H378" t="s">
+        <v>60</v>
+      </c>
+      <c r="I378" s="11">
+        <v>8</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>1031</v>
+      </c>
+      <c r="B379" t="s">
+        <v>36</v>
+      </c>
+      <c r="C379" s="10">
+        <v>44736.679504675929</v>
+      </c>
+      <c r="D379" s="10">
+        <v>44736.679548101849</v>
+      </c>
+      <c r="E379">
+        <v>7</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379" t="s">
+        <v>62</v>
+      </c>
+      <c r="H379" t="s">
+        <v>63</v>
+      </c>
+      <c r="I379" s="11">
+        <v>10</v>
+      </c>
+      <c r="J379">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>1031</v>
+      </c>
+      <c r="B380" t="s">
+        <v>36</v>
+      </c>
+      <c r="C380" s="10">
+        <v>44736.683492245371</v>
+      </c>
+      <c r="D380" s="10">
+        <v>44736.683532199073</v>
+      </c>
+      <c r="E380">
+        <v>10</v>
+      </c>
+      <c r="F380">
+        <v>2</v>
+      </c>
+      <c r="G380" t="s">
+        <v>62</v>
+      </c>
+      <c r="H380" t="s">
+        <v>63</v>
+      </c>
+      <c r="I380" s="11">
+        <v>12</v>
+      </c>
+      <c r="J380">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>1031</v>
+      </c>
+      <c r="B381" t="s">
+        <v>36</v>
+      </c>
+      <c r="C381" s="10">
+        <v>44736.67812207176</v>
+      </c>
+      <c r="D381" s="10">
+        <v>44736.678172361113</v>
+      </c>
+      <c r="E381">
+        <v>6</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>65</v>
+      </c>
+      <c r="H381" t="s">
+        <v>66</v>
+      </c>
+      <c r="I381" s="11">
+        <v>5</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>1031</v>
+      </c>
+      <c r="B382" t="s">
+        <v>36</v>
+      </c>
+      <c r="C382" s="10">
+        <v>44736.687219039355</v>
+      </c>
+      <c r="D382" s="10">
+        <v>44736.687299965277</v>
+      </c>
+      <c r="E382">
+        <v>13</v>
+      </c>
+      <c r="F382">
+        <v>2</v>
+      </c>
+      <c r="G382" t="s">
+        <v>65</v>
+      </c>
+      <c r="H382" t="s">
+        <v>66</v>
+      </c>
+      <c r="I382" s="11">
+        <v>20</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>1032</v>
+      </c>
+      <c r="B383" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383" s="10">
+        <v>44736.750796458335</v>
+      </c>
+      <c r="D383" s="10">
+        <v>44736.750841423614</v>
+      </c>
+      <c r="E383">
+        <v>6</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>46</v>
+      </c>
+      <c r="H383" t="s">
+        <v>47</v>
+      </c>
+      <c r="I383" s="11">
+        <v>59</v>
+      </c>
+      <c r="J383">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>1032</v>
+      </c>
+      <c r="B384" t="s">
+        <v>37</v>
+      </c>
+      <c r="C384" s="10">
+        <v>44736.755600636578</v>
+      </c>
+      <c r="D384" s="10">
+        <v>44736.755665833334</v>
+      </c>
+      <c r="E384">
+        <v>9</v>
+      </c>
+      <c r="F384">
+        <v>2</v>
+      </c>
+      <c r="G384" t="s">
+        <v>46</v>
+      </c>
+      <c r="H384" t="s">
+        <v>47</v>
+      </c>
+      <c r="I384" s="11">
+        <v>57</v>
+      </c>
+      <c r="J384">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>1032</v>
+      </c>
+      <c r="B385" t="s">
+        <v>37</v>
+      </c>
+      <c r="C385" s="10">
+        <v>44736.744068680557</v>
+      </c>
+      <c r="D385" s="10">
+        <v>44736.744186157404</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385" t="s">
+        <v>50</v>
+      </c>
+      <c r="H385" t="s">
+        <v>51</v>
+      </c>
+      <c r="I385" s="11">
+        <v>76</v>
+      </c>
+      <c r="J385">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>1032</v>
+      </c>
+      <c r="B386" t="s">
+        <v>37</v>
+      </c>
+      <c r="C386" s="10">
+        <v>44736.763253206016</v>
+      </c>
+      <c r="D386" s="10">
+        <v>44736.763300868057</v>
+      </c>
+      <c r="E386">
+        <v>14</v>
+      </c>
+      <c r="F386">
+        <v>2</v>
+      </c>
+      <c r="G386" t="s">
+        <v>50</v>
+      </c>
+      <c r="H386" t="s">
+        <v>51</v>
+      </c>
+      <c r="I386" s="11">
+        <v>45</v>
+      </c>
+      <c r="J386">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>1032</v>
+      </c>
+      <c r="B387" t="s">
+        <v>37</v>
+      </c>
+      <c r="C387" s="10">
+        <v>44736.748095891206</v>
+      </c>
+      <c r="D387" s="10">
+        <v>44736.748133043984</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387" t="s">
+        <v>53</v>
+      </c>
+      <c r="H387" t="s">
+        <v>54</v>
+      </c>
+      <c r="I387" s="11">
+        <v>77</v>
+      </c>
+      <c r="J387">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>1032</v>
+      </c>
+      <c r="B388" t="s">
+        <v>37</v>
+      </c>
+      <c r="C388" s="10">
+        <v>44736.754011898149</v>
+      </c>
+      <c r="D388" s="10">
+        <v>44736.754073865741</v>
+      </c>
+      <c r="E388">
+        <v>8</v>
+      </c>
+      <c r="F388">
+        <v>2</v>
+      </c>
+      <c r="G388" t="s">
+        <v>53</v>
+      </c>
+      <c r="H388" t="s">
+        <v>54</v>
+      </c>
+      <c r="I388" s="11">
+        <v>64</v>
+      </c>
+      <c r="J388">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>1032</v>
+      </c>
+      <c r="B389" t="s">
+        <v>37</v>
+      </c>
+      <c r="C389" s="10">
+        <v>44736.745428969909</v>
+      </c>
+      <c r="D389" s="10">
+        <v>44736.745533761576</v>
+      </c>
+      <c r="E389">
+        <v>2</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>56</v>
+      </c>
+      <c r="H389" t="s">
+        <v>57</v>
+      </c>
+      <c r="I389" s="11">
+        <v>89</v>
+      </c>
+      <c r="J389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>1032</v>
+      </c>
+      <c r="B390" t="s">
+        <v>37</v>
+      </c>
+      <c r="C390" s="10">
+        <v>44736.759910659719</v>
+      </c>
+      <c r="D390" s="10">
+        <v>44736.759982800926</v>
+      </c>
+      <c r="E390">
+        <v>12</v>
+      </c>
+      <c r="F390">
+        <v>2</v>
+      </c>
+      <c r="G390" t="s">
+        <v>56</v>
+      </c>
+      <c r="H390" t="s">
+        <v>57</v>
+      </c>
+      <c r="I390" s="11">
+        <v>93</v>
+      </c>
+      <c r="J390">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>1032</v>
+      </c>
+      <c r="B391" t="s">
+        <v>37</v>
+      </c>
+      <c r="C391" s="10">
+        <v>44736.746735347224</v>
+      </c>
+      <c r="D391" s="10">
+        <v>44736.746802118054</v>
+      </c>
+      <c r="E391">
+        <v>3</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391" t="s">
+        <v>59</v>
+      </c>
+      <c r="H391" t="s">
+        <v>60</v>
+      </c>
+      <c r="I391" s="11">
+        <v>84</v>
+      </c>
+      <c r="J391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>1032</v>
+      </c>
+      <c r="B392" t="s">
+        <v>37</v>
+      </c>
+      <c r="C392" s="10">
+        <v>44736.758688032409</v>
+      </c>
+      <c r="D392" s="10">
+        <v>44736.758740243058</v>
+      </c>
+      <c r="E392">
+        <v>11</v>
+      </c>
+      <c r="F392">
+        <v>2</v>
+      </c>
+      <c r="G392" t="s">
+        <v>59</v>
+      </c>
+      <c r="H392" t="s">
+        <v>60</v>
+      </c>
+      <c r="I392" s="11">
+        <v>84</v>
+      </c>
+      <c r="J392">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>1032</v>
+      </c>
+      <c r="B393" t="s">
+        <v>37</v>
+      </c>
+      <c r="C393" s="10">
+        <v>44736.749297766204</v>
+      </c>
+      <c r="D393" s="10">
+        <v>44736.749362662034</v>
+      </c>
+      <c r="E393">
+        <v>5</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393" t="s">
+        <v>62</v>
+      </c>
+      <c r="H393" t="s">
+        <v>63</v>
+      </c>
+      <c r="I393" s="11">
+        <v>65</v>
+      </c>
+      <c r="J393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>1032</v>
+      </c>
+      <c r="B394" t="s">
+        <v>37</v>
+      </c>
+      <c r="C394" s="10">
+        <v>44736.761046493055</v>
+      </c>
+      <c r="D394" s="10">
+        <v>44736.761088263891</v>
+      </c>
+      <c r="E394">
+        <v>13</v>
+      </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+      <c r="G394" t="s">
+        <v>62</v>
+      </c>
+      <c r="H394" t="s">
+        <v>63</v>
+      </c>
+      <c r="I394" s="11">
+        <v>67</v>
+      </c>
+      <c r="J394">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>1032</v>
+      </c>
+      <c r="B395" t="s">
+        <v>37</v>
+      </c>
+      <c r="C395" s="10">
+        <v>44736.752022037035</v>
+      </c>
+      <c r="D395" s="10">
+        <v>44736.752053946759</v>
+      </c>
+      <c r="E395">
+        <v>7</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395" t="s">
+        <v>65</v>
+      </c>
+      <c r="H395" t="s">
+        <v>66</v>
+      </c>
+      <c r="I395" s="11">
+        <v>66</v>
+      </c>
+      <c r="J395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>1032</v>
+      </c>
+      <c r="B396" t="s">
+        <v>37</v>
+      </c>
+      <c r="C396" s="10">
+        <v>44736.757455937499</v>
+      </c>
+      <c r="D396" s="10">
+        <v>44736.757524814813</v>
+      </c>
+      <c r="E396">
+        <v>10</v>
+      </c>
+      <c r="F396">
+        <v>2</v>
+      </c>
+      <c r="G396" t="s">
+        <v>65</v>
+      </c>
+      <c r="H396" t="s">
+        <v>66</v>
+      </c>
+      <c r="I396" s="11">
+        <v>87</v>
+      </c>
+      <c r="J396">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>1033</v>
+      </c>
+      <c r="B397" t="s">
+        <v>38</v>
+      </c>
+      <c r="C397" s="10">
+        <v>44736.783277650466</v>
+      </c>
+      <c r="D397" s="10">
+        <v>44736.783450787036</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397" t="s">
+        <v>46</v>
+      </c>
+      <c r="H397" t="s">
+        <v>47</v>
+      </c>
+      <c r="I397" s="11">
+        <v>3</v>
+      </c>
+      <c r="J397">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>1033</v>
+      </c>
+      <c r="B398" t="s">
+        <v>38</v>
+      </c>
+      <c r="C398" s="10">
+        <v>44736.787345937497</v>
+      </c>
+      <c r="D398" s="10">
+        <v>44736.787500023151</v>
+      </c>
+      <c r="E398">
+        <v>8</v>
+      </c>
+      <c r="F398">
+        <v>2</v>
+      </c>
+      <c r="G398" t="s">
+        <v>46</v>
+      </c>
+      <c r="H398" t="s">
+        <v>47</v>
+      </c>
+      <c r="I398" s="11">
+        <v>7</v>
+      </c>
+      <c r="J398">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>1033</v>
+      </c>
+      <c r="B399" t="s">
+        <v>38</v>
+      </c>
+      <c r="C399" s="10">
+        <v>44736.781668206022</v>
+      </c>
+      <c r="D399" s="10">
+        <v>44736.781795254632</v>
+      </c>
+      <c r="E399">
+        <v>4</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+      <c r="G399" t="s">
+        <v>50</v>
+      </c>
+      <c r="H399" t="s">
+        <v>51</v>
+      </c>
+      <c r="I399" s="11">
+        <v>2</v>
+      </c>
+      <c r="J399">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>1033</v>
+      </c>
+      <c r="B400" t="s">
+        <v>38</v>
+      </c>
+      <c r="C400" s="10">
+        <v>44736.794078090279</v>
+      </c>
+      <c r="D400" s="10">
+        <v>44736.794211006942</v>
+      </c>
+      <c r="E400">
+        <v>13</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400" t="s">
+        <v>50</v>
+      </c>
+      <c r="H400" t="s">
+        <v>51</v>
+      </c>
+      <c r="I400" s="11">
+        <v>16</v>
+      </c>
+      <c r="J400">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>1033</v>
+      </c>
+      <c r="B401" t="s">
+        <v>38</v>
+      </c>
+      <c r="C401" s="10">
+        <v>44736.786025590278</v>
+      </c>
+      <c r="D401" s="10">
+        <v>44736.786265196759</v>
+      </c>
+      <c r="E401">
+        <v>7</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401" t="s">
+        <v>53</v>
+      </c>
+      <c r="H401" t="s">
+        <v>54</v>
+      </c>
+      <c r="I401" s="11">
+        <v>10</v>
+      </c>
+      <c r="J401">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>1033</v>
+      </c>
+      <c r="B402" t="s">
+        <v>38</v>
+      </c>
+      <c r="C402" s="10">
+        <v>44736.790128611108</v>
+      </c>
+      <c r="D402" s="10">
+        <v>44736.790329675925</v>
+      </c>
+      <c r="E402">
+        <v>10</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402" t="s">
+        <v>53</v>
+      </c>
+      <c r="H402" t="s">
+        <v>54</v>
+      </c>
+      <c r="I402" s="11">
+        <v>6</v>
+      </c>
+      <c r="J402">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>1033</v>
+      </c>
+      <c r="B403" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" s="10">
+        <v>44736.784676655094</v>
+      </c>
+      <c r="D403" s="10">
+        <v>44736.784824409726</v>
+      </c>
+      <c r="E403">
+        <v>6</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403" t="s">
+        <v>56</v>
+      </c>
+      <c r="H403" t="s">
+        <v>57</v>
+      </c>
+      <c r="I403" s="11">
+        <v>9</v>
+      </c>
+      <c r="J403">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>1033</v>
+      </c>
+      <c r="B404" t="s">
+        <v>38</v>
+      </c>
+      <c r="C404" s="10">
+        <v>44736.795486157411</v>
+      </c>
+      <c r="D404" s="10">
+        <v>44736.795772152778</v>
+      </c>
+      <c r="E404">
+        <v>14</v>
+      </c>
+      <c r="F404">
+        <v>2</v>
+      </c>
+      <c r="G404" t="s">
+        <v>56</v>
+      </c>
+      <c r="H404" t="s">
+        <v>57</v>
+      </c>
+      <c r="I404" s="11">
+        <v>25</v>
+      </c>
+      <c r="J404">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>1033</v>
+      </c>
+      <c r="B405" t="s">
+        <v>38</v>
+      </c>
+      <c r="C405" s="10">
+        <v>44736.778572465279</v>
+      </c>
+      <c r="D405" s="10">
+        <v>44736.77867806713</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405" t="s">
+        <v>59</v>
+      </c>
+      <c r="H405" t="s">
+        <v>60</v>
+      </c>
+      <c r="I405" s="11">
+        <v>8</v>
+      </c>
+      <c r="J405">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>1033</v>
+      </c>
+      <c r="B406" t="s">
+        <v>38</v>
+      </c>
+      <c r="C406" s="10">
+        <v>44736.788771898151</v>
+      </c>
+      <c r="D406" s="10">
+        <v>44736.788938692131</v>
+      </c>
+      <c r="E406">
+        <v>9</v>
+      </c>
+      <c r="F406">
+        <v>2</v>
+      </c>
+      <c r="G406" t="s">
+        <v>59</v>
+      </c>
+      <c r="H406" t="s">
+        <v>60</v>
+      </c>
+      <c r="I406" s="11">
+        <v>13</v>
+      </c>
+      <c r="J406">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>1033</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407" s="10">
+        <v>44736.777219733798</v>
+      </c>
+      <c r="D407" s="10">
+        <v>44736.777329166667</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+      <c r="G407" t="s">
+        <v>62</v>
+      </c>
+      <c r="H407" t="s">
+        <v>63</v>
+      </c>
+      <c r="I407" s="11">
+        <v>2</v>
+      </c>
+      <c r="J407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>1033</v>
+      </c>
+      <c r="B408" t="s">
+        <v>38</v>
+      </c>
+      <c r="C408" s="10">
+        <v>44736.791388379628</v>
+      </c>
+      <c r="D408" s="10">
+        <v>44736.791622685188</v>
+      </c>
+      <c r="E408">
+        <v>11</v>
+      </c>
+      <c r="F408">
+        <v>2</v>
+      </c>
+      <c r="G408" t="s">
+        <v>62</v>
+      </c>
+      <c r="H408" t="s">
+        <v>63</v>
+      </c>
+      <c r="I408" s="11">
+        <v>16</v>
+      </c>
+      <c r="J408">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>1033</v>
+      </c>
+      <c r="B409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" s="10">
+        <v>44736.780066307867</v>
+      </c>
+      <c r="D409" s="10">
+        <v>44736.780324918982</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+      <c r="G409" t="s">
+        <v>65</v>
+      </c>
+      <c r="H409" t="s">
+        <v>66</v>
+      </c>
+      <c r="I409" s="11">
+        <v>5</v>
+      </c>
+      <c r="J409">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>1033</v>
+      </c>
+      <c r="B410" t="s">
+        <v>38</v>
+      </c>
+      <c r="C410" s="10">
+        <v>44736.792728993052</v>
+      </c>
+      <c r="D410" s="10">
+        <v>44736.792918125</v>
+      </c>
+      <c r="E410">
+        <v>12</v>
+      </c>
+      <c r="F410">
+        <v>2</v>
+      </c>
+      <c r="G410" t="s">
+        <v>65</v>
+      </c>
+      <c r="H410" t="s">
+        <v>66</v>
+      </c>
+      <c r="I410" s="11">
+        <v>5</v>
+      </c>
+      <c r="J410">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>1034</v>
+      </c>
+      <c r="B411" t="s">
+        <v>39</v>
+      </c>
+      <c r="C411" s="10">
+        <v>44736.784678981479</v>
+      </c>
+      <c r="D411" s="10">
+        <v>44736.784771388891</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411" t="s">
+        <v>46</v>
+      </c>
+      <c r="H411" t="s">
+        <v>47</v>
+      </c>
+      <c r="I411" s="11">
+        <v>6</v>
+      </c>
+      <c r="J411">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>1034</v>
+      </c>
+      <c r="B412" t="s">
+        <v>39</v>
+      </c>
+      <c r="C412" s="10">
+        <v>44736.801187476849</v>
+      </c>
+      <c r="D412" s="10">
+        <v>44736.801254942133</v>
+      </c>
+      <c r="E412">
+        <v>14</v>
+      </c>
+      <c r="F412">
+        <v>2</v>
+      </c>
+      <c r="G412" t="s">
+        <v>46</v>
+      </c>
+      <c r="H412" t="s">
+        <v>47</v>
+      </c>
+      <c r="I412" s="11">
+        <v>5</v>
+      </c>
+      <c r="J412">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>1034</v>
+      </c>
+      <c r="B413" t="s">
+        <v>39</v>
+      </c>
+      <c r="C413" s="10">
+        <v>44736.792186064813</v>
+      </c>
+      <c r="D413" s="10">
+        <v>44736.792275555556</v>
+      </c>
+      <c r="E413">
+        <v>7</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>50</v>
+      </c>
+      <c r="H413" t="s">
+        <v>51</v>
+      </c>
+      <c r="I413" s="11">
+        <v>9</v>
+      </c>
+      <c r="J413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>1034</v>
+      </c>
+      <c r="B414" t="s">
+        <v>39</v>
+      </c>
+      <c r="C414" s="10">
+        <v>44736.793531134259</v>
+      </c>
+      <c r="D414" s="10">
+        <v>44736.793580925929</v>
+      </c>
+      <c r="E414">
+        <v>8</v>
+      </c>
+      <c r="F414">
+        <v>2</v>
+      </c>
+      <c r="G414" t="s">
+        <v>50</v>
+      </c>
+      <c r="H414" t="s">
+        <v>51</v>
+      </c>
+      <c r="I414" s="11">
+        <v>3</v>
+      </c>
+      <c r="J414">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>1034</v>
+      </c>
+      <c r="B415" t="s">
+        <v>39</v>
+      </c>
+      <c r="C415" s="10">
+        <v>44736.787174293982</v>
+      </c>
+      <c r="D415" s="10">
+        <v>44736.787269780092</v>
+      </c>
+      <c r="E415">
+        <v>3</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415" t="s">
+        <v>53</v>
+      </c>
+      <c r="H415" t="s">
+        <v>54</v>
+      </c>
+      <c r="I415" s="11">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>1034</v>
+      </c>
+      <c r="B416" t="s">
+        <v>39</v>
+      </c>
+      <c r="C416" s="10">
+        <v>44736.799976724535</v>
+      </c>
+      <c r="D416" s="10">
+        <v>44736.800040636575</v>
+      </c>
+      <c r="E416">
+        <v>13</v>
+      </c>
+      <c r="F416">
+        <v>2</v>
+      </c>
+      <c r="G416" t="s">
+        <v>53</v>
+      </c>
+      <c r="H416" t="s">
+        <v>54</v>
+      </c>
+      <c r="I416" s="11">
+        <v>2</v>
+      </c>
+      <c r="J416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>1034</v>
+      </c>
+      <c r="B417" t="s">
+        <v>39</v>
+      </c>
+      <c r="C417" s="10">
+        <v>44736.789650648148</v>
+      </c>
+      <c r="D417" s="10">
+        <v>44736.789709942132</v>
+      </c>
+      <c r="E417">
+        <v>5</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417" t="s">
+        <v>56</v>
+      </c>
+      <c r="H417" t="s">
+        <v>57</v>
+      </c>
+      <c r="I417" s="11">
+        <v>7</v>
+      </c>
+      <c r="J417">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>1034</v>
+      </c>
+      <c r="B418" t="s">
+        <v>39</v>
+      </c>
+      <c r="C418" s="10">
+        <v>44736.79480181713</v>
+      </c>
+      <c r="D418" s="10">
+        <v>44736.79484052083</v>
+      </c>
+      <c r="E418">
+        <v>9</v>
+      </c>
+      <c r="F418">
+        <v>2</v>
+      </c>
+      <c r="G418" t="s">
+        <v>56</v>
+      </c>
+      <c r="H418" t="s">
+        <v>57</v>
+      </c>
+      <c r="I418" s="11">
+        <v>16</v>
+      </c>
+      <c r="J418">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>1034</v>
+      </c>
+      <c r="B419" t="s">
+        <v>39</v>
+      </c>
+      <c r="C419" s="10">
+        <v>44736.790896134262</v>
+      </c>
+      <c r="D419" s="10">
+        <v>44736.790968634261</v>
+      </c>
+      <c r="E419">
+        <v>6</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>59</v>
+      </c>
+      <c r="H419" t="s">
+        <v>60</v>
+      </c>
+      <c r="I419" s="11">
+        <v>10</v>
+      </c>
+      <c r="J419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>1034</v>
+      </c>
+      <c r="B420" t="s">
+        <v>39</v>
+      </c>
+      <c r="C420" s="10">
+        <v>44736.798759143516</v>
+      </c>
+      <c r="D420" s="10">
+        <v>44736.798832499997</v>
+      </c>
+      <c r="E420">
+        <v>12</v>
+      </c>
+      <c r="F420">
+        <v>2</v>
+      </c>
+      <c r="G420" t="s">
+        <v>59</v>
+      </c>
+      <c r="H420" t="s">
+        <v>60</v>
+      </c>
+      <c r="I420" s="11">
+        <v>1</v>
+      </c>
+      <c r="J420">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>1034</v>
+      </c>
+      <c r="B421" t="s">
+        <v>39</v>
+      </c>
+      <c r="C421" s="10">
+        <v>44736.788479699077</v>
+      </c>
+      <c r="D421" s="10">
+        <v>44736.788533900464</v>
+      </c>
+      <c r="E421">
+        <v>4</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+      <c r="G421" t="s">
+        <v>62</v>
+      </c>
+      <c r="H421" t="s">
+        <v>63</v>
+      </c>
+      <c r="I421" s="11">
+        <v>3</v>
+      </c>
+      <c r="J421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>1034</v>
+      </c>
+      <c r="B422" t="s">
+        <v>39</v>
+      </c>
+      <c r="C422" s="10">
+        <v>44736.796071932869</v>
+      </c>
+      <c r="D422" s="10">
+        <v>44736.796137384263</v>
+      </c>
+      <c r="E422">
+        <v>10</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+      <c r="G422" t="s">
+        <v>62</v>
+      </c>
+      <c r="H422" t="s">
+        <v>63</v>
+      </c>
+      <c r="I422" s="11">
+        <v>3</v>
+      </c>
+      <c r="J422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>1034</v>
+      </c>
+      <c r="B423" t="s">
+        <v>39</v>
+      </c>
+      <c r="C423" s="10">
+        <v>44736.785913831016</v>
+      </c>
+      <c r="D423" s="10">
+        <v>44736.785956111111</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423" t="s">
+        <v>65</v>
+      </c>
+      <c r="H423" t="s">
+        <v>66</v>
+      </c>
+      <c r="I423" s="11">
+        <v>3</v>
+      </c>
+      <c r="J423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>1034</v>
+      </c>
+      <c r="B424" t="s">
+        <v>39</v>
+      </c>
+      <c r="C424" s="10">
+        <v>44736.797299745369</v>
+      </c>
+      <c r="D424" s="10">
+        <v>44736.79739226852</v>
+      </c>
+      <c r="E424">
+        <v>11</v>
+      </c>
+      <c r="F424">
+        <v>2</v>
+      </c>
+      <c r="G424" t="s">
+        <v>65</v>
+      </c>
+      <c r="H424" t="s">
+        <v>66</v>
+      </c>
+      <c r="I424" s="11">
+        <v>9</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>1035</v>
+      </c>
+      <c r="B425" t="s">
+        <v>40</v>
+      </c>
+      <c r="C425" s="10">
+        <v>44736.798493958333</v>
+      </c>
+      <c r="D425" s="10">
+        <v>44736.798567731479</v>
+      </c>
+      <c r="E425">
+        <v>3</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>46</v>
+      </c>
+      <c r="H425" t="s">
+        <v>47</v>
+      </c>
+      <c r="I425" s="11">
+        <v>12</v>
+      </c>
+      <c r="J425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>1035</v>
+      </c>
+      <c r="B426" t="s">
+        <v>40</v>
+      </c>
+      <c r="C426" s="10">
+        <v>44736.808595439812</v>
+      </c>
+      <c r="D426" s="10">
+        <v>44736.808648935184</v>
+      </c>
+      <c r="E426">
+        <v>11</v>
+      </c>
+      <c r="F426">
+        <v>2</v>
+      </c>
+      <c r="G426" t="s">
+        <v>46</v>
+      </c>
+      <c r="H426" t="s">
+        <v>47</v>
+      </c>
+      <c r="I426" s="11">
+        <v>23</v>
+      </c>
+      <c r="J426">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>1035</v>
+      </c>
+      <c r="B427" t="s">
+        <v>40</v>
+      </c>
+      <c r="C427" s="10">
+        <v>44736.802427615738</v>
+      </c>
+      <c r="D427" s="10">
+        <v>44736.80249840278</v>
+      </c>
+      <c r="E427">
+        <v>6</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427" t="s">
+        <v>50</v>
+      </c>
+      <c r="H427" t="s">
+        <v>51</v>
+      </c>
+      <c r="I427" s="11">
+        <v>12</v>
+      </c>
+      <c r="J427">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>1035</v>
+      </c>
+      <c r="B428" t="s">
+        <v>40</v>
+      </c>
+      <c r="C428" s="10">
+        <v>44736.809761909724</v>
+      </c>
+      <c r="D428" s="10">
+        <v>44736.809820486109</v>
+      </c>
+      <c r="E428">
+        <v>12</v>
+      </c>
+      <c r="F428">
+        <v>2</v>
+      </c>
+      <c r="G428" t="s">
+        <v>50</v>
+      </c>
+      <c r="H428" t="s">
+        <v>51</v>
+      </c>
+      <c r="I428" s="11">
+        <v>8</v>
+      </c>
+      <c r="J428">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>1035</v>
+      </c>
+      <c r="B429" t="s">
+        <v>40</v>
+      </c>
+      <c r="C429" s="10">
+        <v>44736.801244641203</v>
+      </c>
+      <c r="D429" s="10">
+        <v>44736.801347708337</v>
+      </c>
+      <c r="E429">
+        <v>5</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429" t="s">
+        <v>53</v>
+      </c>
+      <c r="H429" t="s">
+        <v>54</v>
+      </c>
+      <c r="I429" s="11">
+        <v>5</v>
+      </c>
+      <c r="J429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>1035</v>
+      </c>
+      <c r="B430" t="s">
+        <v>40</v>
+      </c>
+      <c r="C430" s="10">
+        <v>44736.806072372689</v>
+      </c>
+      <c r="D430" s="10">
+        <v>44736.806205787034</v>
+      </c>
+      <c r="E430">
+        <v>9</v>
+      </c>
+      <c r="F430">
+        <v>2</v>
+      </c>
+      <c r="G430" t="s">
+        <v>53</v>
+      </c>
+      <c r="H430" t="s">
+        <v>54</v>
+      </c>
+      <c r="I430" s="11">
+        <v>17</v>
+      </c>
+      <c r="J430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>1035</v>
+      </c>
+      <c r="B431" t="s">
+        <v>40</v>
+      </c>
+      <c r="C431" s="10">
+        <v>44736.803691701389</v>
+      </c>
+      <c r="D431" s="10">
+        <v>44736.803750266205</v>
+      </c>
+      <c r="E431">
+        <v>7</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431" t="s">
+        <v>56</v>
+      </c>
+      <c r="H431" t="s">
+        <v>57</v>
+      </c>
+      <c r="I431" s="11">
+        <v>4</v>
+      </c>
+      <c r="J431">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>1035</v>
+      </c>
+      <c r="B432" t="s">
+        <v>40</v>
+      </c>
+      <c r="C432" s="10">
+        <v>44736.80735127315</v>
+      </c>
+      <c r="D432" s="10">
+        <v>44736.807432361114</v>
+      </c>
+      <c r="E432">
+        <v>10</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432" t="s">
+        <v>56</v>
+      </c>
+      <c r="H432" t="s">
+        <v>57</v>
+      </c>
+      <c r="I432" s="11">
+        <v>22</v>
+      </c>
+      <c r="J432">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>1035</v>
+      </c>
+      <c r="B433" t="s">
+        <v>40</v>
+      </c>
+      <c r="C433" s="10">
+        <v>44736.799892164352</v>
+      </c>
+      <c r="D433" s="10">
+        <v>44736.79993966435</v>
+      </c>
+      <c r="E433">
+        <v>4</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433" t="s">
+        <v>59</v>
+      </c>
+      <c r="H433" t="s">
+        <v>60</v>
+      </c>
+      <c r="I433" s="11">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>1035</v>
+      </c>
+      <c r="B434" t="s">
+        <v>40</v>
+      </c>
+      <c r="C434" s="10">
+        <v>44736.810929537038</v>
+      </c>
+      <c r="D434" s="10">
+        <v>44736.810973298612</v>
+      </c>
+      <c r="E434">
+        <v>13</v>
+      </c>
+      <c r="F434">
+        <v>2</v>
+      </c>
+      <c r="G434" t="s">
+        <v>59</v>
+      </c>
+      <c r="H434" t="s">
+        <v>60</v>
+      </c>
+      <c r="I434" s="11">
+        <v>5</v>
+      </c>
+      <c r="J434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>1035</v>
+      </c>
+      <c r="B435" t="s">
+        <v>40</v>
+      </c>
+      <c r="C435" s="10">
+        <v>44736.797205879629</v>
+      </c>
+      <c r="D435" s="10">
+        <v>44736.797270937503</v>
+      </c>
+      <c r="E435">
+        <v>2</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435" t="s">
+        <v>62</v>
+      </c>
+      <c r="H435" t="s">
+        <v>63</v>
+      </c>
+      <c r="I435" s="11">
+        <v>5</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>1035</v>
+      </c>
+      <c r="B436" t="s">
+        <v>40</v>
+      </c>
+      <c r="C436" s="10">
+        <v>44736.812058622687</v>
+      </c>
+      <c r="D436" s="10">
+        <v>44736.812141921298</v>
+      </c>
+      <c r="E436">
+        <v>14</v>
+      </c>
+      <c r="F436">
+        <v>2</v>
+      </c>
+      <c r="G436" t="s">
+        <v>62</v>
+      </c>
+      <c r="H436" t="s">
+        <v>63</v>
+      </c>
+      <c r="I436" s="11">
+        <v>3</v>
+      </c>
+      <c r="J436">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>1035</v>
+      </c>
+      <c r="B437" t="s">
+        <v>40</v>
+      </c>
+      <c r="C437" s="10">
+        <v>44736.795959976851</v>
+      </c>
+      <c r="D437" s="10">
+        <v>44736.796020740738</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437" t="s">
+        <v>65</v>
+      </c>
+      <c r="H437" t="s">
+        <v>66</v>
+      </c>
+      <c r="I437" s="11">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>1035</v>
+      </c>
+      <c r="B438" t="s">
+        <v>40</v>
+      </c>
+      <c r="C438" s="10">
+        <v>44736.804905370373</v>
+      </c>
+      <c r="D438" s="10">
+        <v>44736.804961377318</v>
+      </c>
+      <c r="E438">
+        <v>8</v>
+      </c>
+      <c r="F438">
+        <v>2</v>
+      </c>
+      <c r="G438" t="s">
+        <v>65</v>
+      </c>
+      <c r="H438" t="s">
+        <v>66</v>
+      </c>
+      <c r="I438" s="11">
+        <v>2</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13806,7 +16216,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J368" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J438" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SEV_v2_-_Session_2_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Session_2_-_Raw_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubreydubois/Documents/SEV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366D351F-381A-A945-B09C-457351B06671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C78A7-DC6F-BD45-8512-9897414226C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="17080" windowHeight="12940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="81">
   <si>
     <t>Participant Code</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>1037</t>
+  </si>
+  <si>
+    <t>1038</t>
   </si>
   <si>
     <t>Sample ID</t>
@@ -829,11 +832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3719E8E9-37E0-4ED7-955A-1FACD9EC7C6D}">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2681ECA-3B79-42CE-903C-D6339E49EE2D}">
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1469,6 +1472,20 @@
         <v>44739.684267187498</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1038</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="8">
+        <v>44743.666028032407</v>
+      </c>
+      <c r="D49" s="8">
+        <v>44743.682035266203</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A6:J6"/>
@@ -1486,14 +1503,14 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2 A9:D48" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D2 A9:D49" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F35A3AD-F342-4477-ABF6-5428B7752B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585B1C41-506C-479E-927B-4608A06DC802}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1510,115 +1527,115 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1631,14 +1648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D07566-9DB6-4934-8C38-A58A92CB9EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDF7F1-8D0A-40E7-84BE-4BB3D8AD4186}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
@@ -1662,21 +1679,21 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -1693,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.15">
@@ -2255,6 +2272,23 @@
       </c>
       <c r="E37" s="11">
         <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1038</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44743.666028032407</v>
+      </c>
+      <c r="D38" s="10">
+        <v>44743.666028032407</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -2265,23 +2299,23 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E37" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC542DB7-2A65-4DAF-A0B9-DD6A14751185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59798DC1-A181-4A81-BB8F-C8DC2343D93F}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:J452"/>
+  <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B532" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2307,30 +2341,30 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="I2" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -2347,22 +2381,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
@@ -2385,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="20">
         <v>11</v>
@@ -2417,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="11">
         <v>10</v>
@@ -2449,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="11">
         <v>15</v>
@@ -2481,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="11">
         <v>19</v>
@@ -2513,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="11">
         <v>10</v>
@@ -2545,10 +2579,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="11">
         <v>12</v>
@@ -2577,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="11">
         <v>36</v>
@@ -2609,10 +2643,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="11">
         <v>9</v>
@@ -2641,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="11">
         <v>19</v>
@@ -2673,10 +2707,10 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="11">
         <v>36</v>
@@ -2705,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" s="11">
         <v>5</v>
@@ -2737,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16" s="11">
         <v>15</v>
@@ -2769,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" s="11">
         <v>11</v>
@@ -2801,10 +2835,10 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="11">
         <v>19</v>
@@ -2833,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="11">
         <v>14</v>
@@ -2865,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" s="11">
         <v>14</v>
@@ -2897,10 +2931,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" s="11">
         <v>34</v>
@@ -2929,10 +2963,10 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="11">
         <v>9</v>
@@ -2961,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I23" s="11">
         <v>22</v>
@@ -2993,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" s="11">
         <v>12</v>
@@ -3025,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I25" s="11">
         <v>6</v>
@@ -3057,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" s="11">
         <v>35</v>
@@ -3089,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I27" s="11">
         <v>33</v>
@@ -3121,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I28" s="11">
         <v>36</v>
@@ -3153,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" s="11">
         <v>3</v>
@@ -3185,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I30" s="11">
         <v>8</v>
@@ -3217,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I31" s="11">
         <v>13</v>
@@ -3249,10 +3283,10 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="11">
         <v>10</v>
@@ -3281,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="11">
         <v>18</v>
@@ -3313,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" s="11">
         <v>22</v>
@@ -3345,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" s="11">
         <v>1</v>
@@ -3377,10 +3411,10 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="11">
         <v>22</v>
@@ -3409,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I37" s="11">
         <v>16</v>
@@ -3441,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I38" s="11">
         <v>14</v>
@@ -3473,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I39" s="11">
         <v>24</v>
@@ -3505,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I40" s="11">
         <v>13</v>
@@ -3537,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I41" s="11">
         <v>8</v>
@@ -3569,10 +3603,10 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I42" s="11">
         <v>13</v>
@@ -3601,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I43" s="11">
         <v>14</v>
@@ -3633,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I44" s="11">
         <v>16</v>
@@ -3665,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I45" s="11">
         <v>14</v>
@@ -3697,10 +3731,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I46" s="11">
         <v>12</v>
@@ -3729,10 +3763,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" s="11">
         <v>15</v>
@@ -3761,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="11">
         <v>9</v>
@@ -3793,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I49" s="11">
         <v>10</v>
@@ -3825,10 +3859,10 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I50" s="11">
         <v>6</v>
@@ -3857,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I51" s="11">
         <v>26</v>
@@ -3889,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I52" s="11">
         <v>6</v>
@@ -3921,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I53" s="11">
         <v>11</v>
@@ -3953,10 +3987,10 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11">
         <v>12</v>
@@ -3985,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I55" s="11">
         <v>8</v>
@@ -4017,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I56" s="11">
         <v>9</v>
@@ -4049,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I57" s="11">
         <v>16</v>
@@ -4081,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I58" s="11">
         <v>4</v>
@@ -4113,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I59" s="11">
         <v>16</v>
@@ -4145,10 +4179,10 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I60" s="11">
         <v>2</v>
@@ -4177,10 +4211,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I61" s="11">
         <v>10</v>
@@ -4209,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I62" s="11">
         <v>5</v>
@@ -4241,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I63" s="11">
         <v>20</v>
@@ -4273,10 +4307,10 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I64" s="11">
         <v>10</v>
@@ -4305,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I65" s="11">
         <v>10</v>
@@ -4337,10 +4371,10 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I66" s="11">
         <v>15</v>
@@ -4369,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I67" s="11">
         <v>5</v>
@@ -4401,10 +4435,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I68" s="11">
         <v>10</v>
@@ -4433,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I69" s="11">
         <v>25</v>
@@ -4465,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I70" s="11">
         <v>10</v>
@@ -4497,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I71" s="11">
         <v>15</v>
@@ -4529,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I72" s="11">
         <v>5</v>
@@ -4561,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I73" s="11">
         <v>5</v>
@@ -4593,10 +4627,10 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I74" s="11">
         <v>10</v>
@@ -4625,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I75" s="11">
         <v>9</v>
@@ -4657,10 +4691,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I76" s="11">
         <v>25</v>
@@ -4689,10 +4723,10 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I77" s="11">
         <v>21</v>
@@ -4721,10 +4755,10 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I78" s="11">
         <v>25</v>
@@ -4753,10 +4787,10 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I79" s="11">
         <v>12</v>
@@ -4785,10 +4819,10 @@
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I80" s="11">
         <v>23</v>
@@ -4817,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I81" s="11">
         <v>28</v>
@@ -4849,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I82" s="11">
         <v>31</v>
@@ -4881,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I83" s="11">
         <v>13</v>
@@ -4913,10 +4947,10 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I84" s="11">
         <v>24</v>
@@ -4945,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I85" s="11">
         <v>10</v>
@@ -4977,10 +5011,10 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I86" s="11">
         <v>25</v>
@@ -5009,10 +5043,10 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I87" s="11">
         <v>22</v>
@@ -5041,10 +5075,10 @@
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I88" s="11">
         <v>36</v>
@@ -5073,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I89" s="11">
         <v>57</v>
@@ -5105,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I90" s="11">
         <v>71</v>
@@ -5137,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I91" s="11">
         <v>50</v>
@@ -5169,10 +5203,10 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I92" s="11">
         <v>61</v>
@@ -5201,10 +5235,10 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I93" s="11">
         <v>73</v>
@@ -5233,10 +5267,10 @@
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I94" s="11">
         <v>81</v>
@@ -5265,10 +5299,10 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I95" s="11">
         <v>61</v>
@@ -5297,10 +5331,10 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I96" s="11">
         <v>57</v>
@@ -5329,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I97" s="11">
         <v>49</v>
@@ -5361,10 +5395,10 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I98" s="11">
         <v>55</v>
@@ -5393,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I99" s="11">
         <v>76</v>
@@ -5425,10 +5459,10 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I100" s="11">
         <v>54</v>
@@ -5457,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I101" s="11">
         <v>59</v>
@@ -5489,10 +5523,10 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I102" s="11">
         <v>55</v>
@@ -5521,10 +5555,10 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I103" s="11">
         <v>3</v>
@@ -5553,10 +5587,10 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I104" s="11">
         <v>3</v>
@@ -5585,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I105" s="11">
         <v>3</v>
@@ -5617,10 +5651,10 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I106" s="11">
         <v>2</v>
@@ -5649,10 +5683,10 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I107" s="11">
         <v>5</v>
@@ -5681,10 +5715,10 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I108" s="11">
         <v>3</v>
@@ -5713,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I109" s="11">
         <v>4</v>
@@ -5745,10 +5779,10 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I110" s="11">
         <v>3</v>
@@ -5777,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I111" s="11">
         <v>4</v>
@@ -5809,10 +5843,10 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I112" s="11">
         <v>3</v>
@@ -5841,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I113" s="11">
         <v>4</v>
@@ -5873,10 +5907,10 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I114" s="11">
         <v>4</v>
@@ -5905,10 +5939,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I115" s="11">
         <v>2</v>
@@ -5937,10 +5971,10 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H116" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I116" s="11">
         <v>5</v>
@@ -5969,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I117" s="11">
         <v>12</v>
@@ -6001,10 +6035,10 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I118" s="11">
         <v>15</v>
@@ -6033,10 +6067,10 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I119" s="11">
         <v>15</v>
@@ -6065,10 +6099,10 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I120" s="11">
         <v>23</v>
@@ -6097,10 +6131,10 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I121" s="11">
         <v>10</v>
@@ -6129,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I122" s="11">
         <v>12</v>
@@ -6161,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I123" s="11">
         <v>15</v>
@@ -6193,10 +6227,10 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I124" s="11">
         <v>10</v>
@@ -6225,10 +6259,10 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I125" s="11">
         <v>7</v>
@@ -6257,10 +6291,10 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I126" s="11">
         <v>12</v>
@@ -6289,10 +6323,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I127" s="11">
         <v>13</v>
@@ -6321,10 +6355,10 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I128" s="11">
         <v>12</v>
@@ -6353,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I129" s="11">
         <v>17</v>
@@ -6385,10 +6419,10 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I130" s="11">
         <v>19</v>
@@ -6417,10 +6451,10 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I131" s="11">
         <v>14</v>
@@ -6449,10 +6483,10 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I132" s="11">
         <v>11</v>
@@ -6481,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I133" s="11">
         <v>8</v>
@@ -6513,10 +6547,10 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I134" s="11">
         <v>11</v>
@@ -6545,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I135" s="11">
         <v>7</v>
@@ -6577,10 +6611,10 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I136" s="11">
         <v>3</v>
@@ -6609,10 +6643,10 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I137" s="11">
         <v>12</v>
@@ -6641,10 +6675,10 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I138" s="11">
         <v>8</v>
@@ -6673,10 +6707,10 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I139" s="11">
         <v>7</v>
@@ -6705,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I140" s="11">
         <v>3</v>
@@ -6737,10 +6771,10 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I141" s="11">
         <v>6</v>
@@ -6769,10 +6803,10 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I142" s="11">
         <v>6</v>
@@ -6801,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I143" s="11">
         <v>4</v>
@@ -6833,10 +6867,10 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I144" s="11">
         <v>3</v>
@@ -6865,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I145" s="11">
         <v>44</v>
@@ -6897,10 +6931,10 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I146" s="11">
         <v>41</v>
@@ -6929,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I147" s="11">
         <v>7</v>
@@ -6961,10 +6995,10 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I148" s="11">
         <v>25</v>
@@ -6993,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I149" s="11">
         <v>7</v>
@@ -7025,10 +7059,10 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I150" s="11">
         <v>46</v>
@@ -7057,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I151" s="11">
         <v>32</v>
@@ -7089,10 +7123,10 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I152" s="11">
         <v>49</v>
@@ -7121,10 +7155,10 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I153" s="11">
         <v>5</v>
@@ -7153,10 +7187,10 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I154" s="11">
         <v>47</v>
@@ -7185,10 +7219,10 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I155" s="11">
         <v>23</v>
@@ -7217,10 +7251,10 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H156" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I156" s="11">
         <v>46</v>
@@ -7249,10 +7283,10 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I157" s="11">
         <v>9</v>
@@ -7281,10 +7315,10 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I158" s="11">
         <v>46</v>
@@ -7313,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I159" s="11">
         <v>16</v>
@@ -7345,10 +7379,10 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I160" s="11">
         <v>4</v>
@@ -7377,10 +7411,10 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I161" s="11">
         <v>15</v>
@@ -7409,10 +7443,10 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I162" s="11">
         <v>22</v>
@@ -7441,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I163" s="11">
         <v>29</v>
@@ -7473,10 +7507,10 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I164" s="11">
         <v>21</v>
@@ -7505,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I165" s="11">
         <v>20</v>
@@ -7537,10 +7571,10 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I166" s="11">
         <v>5</v>
@@ -7569,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I167" s="11">
         <v>6</v>
@@ -7601,10 +7635,10 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I168" s="11">
         <v>16</v>
@@ -7633,10 +7667,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I169" s="11">
         <v>2</v>
@@ -7665,10 +7699,10 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H170" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I170" s="11">
         <v>2</v>
@@ -7697,10 +7731,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H171" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I171" s="11">
         <v>3</v>
@@ -7729,10 +7763,10 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H172" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I172" s="11">
         <v>9</v>
@@ -7761,10 +7795,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I173" s="11">
         <v>9</v>
@@ -7793,10 +7827,10 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I174" s="11">
         <v>8</v>
@@ -7825,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I175" s="11">
         <v>10</v>
@@ -7857,10 +7891,10 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I176" s="11">
         <v>11</v>
@@ -7889,10 +7923,10 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I177" s="11">
         <v>10</v>
@@ -7921,10 +7955,10 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I178" s="11">
         <v>7</v>
@@ -7953,10 +7987,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I179" s="11">
         <v>12</v>
@@ -7985,10 +8019,10 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I180" s="11">
         <v>9</v>
@@ -8017,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I181" s="11">
         <v>9</v>
@@ -8049,10 +8083,10 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I182" s="11">
         <v>10</v>
@@ -8081,10 +8115,10 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H183" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I183" s="11">
         <v>11</v>
@@ -8113,10 +8147,10 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I184" s="11">
         <v>9</v>
@@ -8145,10 +8179,10 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H185" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I185" s="11">
         <v>10</v>
@@ -8177,10 +8211,10 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H186" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I186" s="11">
         <v>6</v>
@@ -8209,10 +8243,10 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I187" s="11">
         <v>22</v>
@@ -8241,10 +8275,10 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I188" s="11">
         <v>25</v>
@@ -8273,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I189" s="11">
         <v>42</v>
@@ -8305,10 +8339,10 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I190" s="11">
         <v>47</v>
@@ -8337,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I191" s="11">
         <v>32</v>
@@ -8369,10 +8403,10 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H192" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I192" s="11">
         <v>45</v>
@@ -8401,10 +8435,10 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I193" s="11">
         <v>48</v>
@@ -8433,10 +8467,10 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I194" s="11">
         <v>25</v>
@@ -8465,10 +8499,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I195" s="11">
         <v>26</v>
@@ -8497,10 +8531,10 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I196" s="11">
         <v>38</v>
@@ -8529,10 +8563,10 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H197" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I197" s="11">
         <v>49</v>
@@ -8561,10 +8595,10 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H198" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I198" s="11">
         <v>28</v>
@@ -8593,10 +8627,10 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H199" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I199" s="11">
         <v>11</v>
@@ -8625,10 +8659,10 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H200" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I200" s="11">
         <v>8</v>
@@ -8657,10 +8691,10 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I201" s="11">
         <v>16</v>
@@ -8689,10 +8723,10 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I202" s="11">
         <v>36</v>
@@ -8721,10 +8755,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I203" s="11">
         <v>36</v>
@@ -8753,10 +8787,10 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H204" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I204" s="11">
         <v>20</v>
@@ -8785,10 +8819,10 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H205" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I205" s="11">
         <v>35</v>
@@ -8817,10 +8851,10 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I206" s="11">
         <v>17</v>
@@ -8849,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H207" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I207" s="11">
         <v>28</v>
@@ -8881,10 +8915,10 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I208" s="11">
         <v>21</v>
@@ -8913,10 +8947,10 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H209" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I209" s="11">
         <v>28</v>
@@ -8945,10 +8979,10 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H210" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I210" s="11">
         <v>34</v>
@@ -8977,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H211" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I211" s="11">
         <v>22</v>
@@ -9009,10 +9043,10 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I212" s="11">
         <v>12</v>
@@ -9041,10 +9075,10 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H213" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I213" s="11">
         <v>13</v>
@@ -9073,10 +9107,10 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H214" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I214" s="11">
         <v>28</v>
@@ -9105,10 +9139,10 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I215" s="11">
         <v>62</v>
@@ -9137,10 +9171,10 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I216" s="11">
         <v>38</v>
@@ -9169,10 +9203,10 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I217" s="11">
         <v>52</v>
@@ -9201,10 +9235,10 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I218" s="11">
         <v>49</v>
@@ -9233,10 +9267,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I219" s="11">
         <v>58</v>
@@ -9265,10 +9299,10 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H220" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I220" s="11">
         <v>43</v>
@@ -9297,10 +9331,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H221" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I221" s="11">
         <v>55</v>
@@ -9329,10 +9363,10 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H222" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I222" s="11">
         <v>45</v>
@@ -9361,10 +9395,10 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H223" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I223" s="11">
         <v>53</v>
@@ -9393,10 +9427,10 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H224" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I224" s="11">
         <v>53</v>
@@ -9425,10 +9459,10 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I225" s="11">
         <v>38</v>
@@ -9457,10 +9491,10 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H226" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I226" s="11">
         <v>33</v>
@@ -9489,10 +9523,10 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I227" s="11">
         <v>49</v>
@@ -9521,10 +9555,10 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I228" s="11">
         <v>56</v>
@@ -9553,10 +9587,10 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I229" s="11">
         <v>83</v>
@@ -9585,10 +9619,10 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I230" s="11">
         <v>81</v>
@@ -9617,10 +9651,10 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I231" s="11">
         <v>65</v>
@@ -9649,10 +9683,10 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H232" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I232" s="11">
         <v>36</v>
@@ -9681,10 +9715,10 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I233" s="11">
         <v>56</v>
@@ -9713,10 +9747,10 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I234" s="11">
         <v>55</v>
@@ -9745,10 +9779,10 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H235" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I235" s="11">
         <v>71</v>
@@ -9777,10 +9811,10 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H236" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I236" s="11">
         <v>78</v>
@@ -9809,10 +9843,10 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H237" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I237" s="11">
         <v>74</v>
@@ -9841,10 +9875,10 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H238" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I238" s="11">
         <v>91</v>
@@ -9873,10 +9907,10 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I239" s="11">
         <v>63</v>
@@ -9905,10 +9939,10 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H240" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I240" s="11">
         <v>44</v>
@@ -9937,10 +9971,10 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H241" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I241" s="11">
         <v>79</v>
@@ -9969,10 +10003,10 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H242" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I242" s="11">
         <v>70</v>
@@ -10001,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I243" s="11">
         <v>3</v>
@@ -10033,10 +10067,10 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I244" s="11">
         <v>4</v>
@@ -10065,10 +10099,10 @@
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H245" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I245" s="11">
         <v>7</v>
@@ -10097,10 +10131,10 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H246" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I246" s="11">
         <v>2</v>
@@ -10129,10 +10163,10 @@
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H247" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I247" s="11">
         <v>5</v>
@@ -10161,10 +10195,10 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I248" s="11">
         <v>10</v>
@@ -10193,10 +10227,10 @@
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H249" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I249" s="11">
         <v>7</v>
@@ -10225,10 +10259,10 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H250" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I250" s="11">
         <v>9</v>
@@ -10257,10 +10291,10 @@
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H251" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I251" s="11">
         <v>4</v>
@@ -10289,10 +10323,10 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H252" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I252" s="11">
         <v>4</v>
@@ -10321,10 +10355,10 @@
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H253" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I253" s="11">
         <v>3</v>
@@ -10353,10 +10387,10 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H254" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I254" s="11">
         <v>2</v>
@@ -10385,10 +10419,10 @@
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H255" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I255" s="11">
         <v>3</v>
@@ -10417,10 +10451,10 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H256" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I256" s="11">
         <v>7</v>
@@ -10449,10 +10483,10 @@
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I257" s="11">
         <v>5</v>
@@ -10481,10 +10515,10 @@
         <v>2</v>
       </c>
       <c r="G258" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I258" s="11">
         <v>11</v>
@@ -10513,10 +10547,10 @@
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H259" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I259" s="11">
         <v>0</v>
@@ -10545,10 +10579,10 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H260" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I260" s="11">
         <v>18</v>
@@ -10577,10 +10611,10 @@
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H261" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I261" s="11">
         <v>8</v>
@@ -10609,10 +10643,10 @@
         <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H262" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I262" s="11">
         <v>6</v>
@@ -10641,10 +10675,10 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H263" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I263" s="11">
         <v>1</v>
@@ -10673,10 +10707,10 @@
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H264" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I264" s="11">
         <v>12</v>
@@ -10705,10 +10739,10 @@
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H265" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I265" s="11">
         <v>6</v>
@@ -10737,10 +10771,10 @@
         <v>2</v>
       </c>
       <c r="G266" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H266" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I266" s="11">
         <v>8</v>
@@ -10769,10 +10803,10 @@
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I267" s="11">
         <v>3</v>
@@ -10801,10 +10835,10 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H268" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I268" s="11">
         <v>8</v>
@@ -10833,10 +10867,10 @@
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H269" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I269" s="11">
         <v>3</v>
@@ -10865,10 +10899,10 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H270" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I270" s="11">
         <v>4</v>
@@ -10897,10 +10931,10 @@
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I271" s="11">
         <v>8</v>
@@ -10929,10 +10963,10 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I272" s="11">
         <v>8</v>
@@ -10961,10 +10995,10 @@
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I273" s="11">
         <v>9</v>
@@ -10993,10 +11027,10 @@
         <v>2</v>
       </c>
       <c r="G274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I274" s="11">
         <v>8</v>
@@ -11025,10 +11059,10 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I275" s="11">
         <v>3</v>
@@ -11057,10 +11091,10 @@
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I276" s="11">
         <v>8</v>
@@ -11089,10 +11123,10 @@
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I277" s="11">
         <v>15</v>
@@ -11121,10 +11155,10 @@
         <v>2</v>
       </c>
       <c r="G278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H278" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I278" s="11">
         <v>17</v>
@@ -11153,10 +11187,10 @@
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H279" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I279" s="11">
         <v>6</v>
@@ -11185,10 +11219,10 @@
         <v>2</v>
       </c>
       <c r="G280" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H280" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I280" s="11">
         <v>4</v>
@@ -11217,10 +11251,10 @@
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H281" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I281" s="11">
         <v>3</v>
@@ -11249,10 +11283,10 @@
         <v>2</v>
       </c>
       <c r="G282" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H282" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I282" s="11">
         <v>8</v>
@@ -11281,10 +11315,10 @@
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H283" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I283" s="11">
         <v>1</v>
@@ -11313,10 +11347,10 @@
         <v>2</v>
       </c>
       <c r="G284" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H284" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I284" s="11">
         <v>6</v>
@@ -11345,10 +11379,10 @@
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H285" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I285" s="11">
         <v>70</v>
@@ -11377,10 +11411,10 @@
         <v>2</v>
       </c>
       <c r="G286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I286" s="11">
         <v>5</v>
@@ -11409,10 +11443,10 @@
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I287" s="11">
         <v>10</v>
@@ -11441,10 +11475,10 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I288" s="11">
         <v>5</v>
@@ -11473,10 +11507,10 @@
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I289" s="11">
         <v>5</v>
@@ -11505,10 +11539,10 @@
         <v>2</v>
       </c>
       <c r="G290" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H290" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I290" s="11">
         <v>5</v>
@@ -11537,10 +11571,10 @@
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H291" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I291" s="11">
         <v>5</v>
@@ -11569,10 +11603,10 @@
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H292" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I292" s="11">
         <v>10</v>
@@ -11601,10 +11635,10 @@
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H293" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I293" s="11">
         <v>5</v>
@@ -11633,10 +11667,10 @@
         <v>2</v>
       </c>
       <c r="G294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H294" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I294" s="11">
         <v>2</v>
@@ -11665,10 +11699,10 @@
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H295" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I295" s="11">
         <v>5</v>
@@ -11697,10 +11731,10 @@
         <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H296" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I296" s="11">
         <v>5</v>
@@ -11729,10 +11763,10 @@
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H297" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I297" s="11">
         <v>5</v>
@@ -11761,10 +11795,10 @@
         <v>2</v>
       </c>
       <c r="G298" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H298" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I298" s="11">
         <v>0</v>
@@ -11793,10 +11827,10 @@
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I299" s="11">
         <v>5</v>
@@ -11825,10 +11859,10 @@
         <v>2</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H300" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I300" s="11">
         <v>8</v>
@@ -11857,10 +11891,10 @@
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H301" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I301" s="11">
         <v>2</v>
@@ -11889,10 +11923,10 @@
         <v>2</v>
       </c>
       <c r="G302" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H302" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I302" s="11">
         <v>3</v>
@@ -11921,10 +11955,10 @@
         <v>1</v>
       </c>
       <c r="G303" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H303" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I303" s="11">
         <v>6</v>
@@ -11953,10 +11987,10 @@
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H304" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I304" s="11">
         <v>5</v>
@@ -11985,10 +12019,10 @@
         <v>1</v>
       </c>
       <c r="G305" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H305" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I305" s="11">
         <v>4</v>
@@ -12017,10 +12051,10 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H306" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I306" s="11">
         <v>7</v>
@@ -12049,10 +12083,10 @@
         <v>1</v>
       </c>
       <c r="G307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H307" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I307" s="11">
         <v>5</v>
@@ -12081,10 +12115,10 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H308" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I308" s="11">
         <v>9</v>
@@ -12113,10 +12147,10 @@
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H309" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I309" s="11">
         <v>4</v>
@@ -12145,10 +12179,10 @@
         <v>2</v>
       </c>
       <c r="G310" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H310" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I310" s="11">
         <v>4</v>
@@ -12177,10 +12211,10 @@
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H311" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I311" s="11">
         <v>3</v>
@@ -12209,10 +12243,10 @@
         <v>2</v>
       </c>
       <c r="G312" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H312" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I312" s="11">
         <v>6</v>
@@ -12241,10 +12275,10 @@
         <v>1</v>
       </c>
       <c r="G313" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H313" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I313" s="11">
         <v>25</v>
@@ -12273,10 +12307,10 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H314" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I314" s="11">
         <v>30</v>
@@ -12305,10 +12339,10 @@
         <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H315" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I315" s="11">
         <v>12</v>
@@ -12337,10 +12371,10 @@
         <v>2</v>
       </c>
       <c r="G316" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H316" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I316" s="11">
         <v>15</v>
@@ -12369,10 +12403,10 @@
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H317" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I317" s="11">
         <v>30</v>
@@ -12401,10 +12435,10 @@
         <v>2</v>
       </c>
       <c r="G318" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H318" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I318" s="11">
         <v>17</v>
@@ -12433,10 +12467,10 @@
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H319" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I319" s="11">
         <v>20</v>
@@ -12465,10 +12499,10 @@
         <v>2</v>
       </c>
       <c r="G320" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H320" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I320" s="11">
         <v>15</v>
@@ -12497,10 +12531,10 @@
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H321" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I321" s="11">
         <v>22</v>
@@ -12529,10 +12563,10 @@
         <v>2</v>
       </c>
       <c r="G322" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H322" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I322" s="11">
         <v>14</v>
@@ -12561,10 +12595,10 @@
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H323" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I323" s="11">
         <v>16</v>
@@ -12593,10 +12627,10 @@
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H324" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I324" s="11">
         <v>11</v>
@@ -12625,10 +12659,10 @@
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H325" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I325" s="11">
         <v>33</v>
@@ -12657,10 +12691,10 @@
         <v>2</v>
       </c>
       <c r="G326" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H326" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I326" s="11">
         <v>17</v>
@@ -12689,10 +12723,10 @@
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H327" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I327" s="11">
         <v>51</v>
@@ -12721,10 +12755,10 @@
         <v>2</v>
       </c>
       <c r="G328" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H328" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I328" s="11">
         <v>46</v>
@@ -12753,10 +12787,10 @@
         <v>1</v>
       </c>
       <c r="G329" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H329" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I329" s="11">
         <v>34</v>
@@ -12785,10 +12819,10 @@
         <v>2</v>
       </c>
       <c r="G330" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H330" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I330" s="11">
         <v>45</v>
@@ -12817,10 +12851,10 @@
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H331" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I331" s="11">
         <v>24</v>
@@ -12849,10 +12883,10 @@
         <v>2</v>
       </c>
       <c r="G332" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H332" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I332" s="11">
         <v>60</v>
@@ -12881,10 +12915,10 @@
         <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H333" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I333" s="11">
         <v>50</v>
@@ -12913,10 +12947,10 @@
         <v>2</v>
       </c>
       <c r="G334" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H334" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I334" s="11">
         <v>51</v>
@@ -12945,10 +12979,10 @@
         <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H335" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I335" s="11">
         <v>30</v>
@@ -12977,10 +13011,10 @@
         <v>2</v>
       </c>
       <c r="G336" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H336" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I336" s="11">
         <v>34</v>
@@ -13009,10 +13043,10 @@
         <v>1</v>
       </c>
       <c r="G337" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H337" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I337" s="11">
         <v>15</v>
@@ -13041,10 +13075,10 @@
         <v>2</v>
       </c>
       <c r="G338" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H338" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I338" s="11">
         <v>30</v>
@@ -13073,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H339" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I339" s="11">
         <v>11</v>
@@ -13105,10 +13139,10 @@
         <v>2</v>
       </c>
       <c r="G340" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H340" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I340" s="11">
         <v>42</v>
@@ -13137,10 +13171,10 @@
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H341" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I341" s="11">
         <v>29</v>
@@ -13169,10 +13203,10 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H342" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I342" s="11">
         <v>24</v>
@@ -13201,10 +13235,10 @@
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H343" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I343" s="11">
         <v>13</v>
@@ -13233,10 +13267,10 @@
         <v>2</v>
       </c>
       <c r="G344" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H344" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I344" s="11">
         <v>16</v>
@@ -13265,10 +13299,10 @@
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H345" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I345" s="11">
         <v>19</v>
@@ -13297,10 +13331,10 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H346" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I346" s="11">
         <v>22</v>
@@ -13329,10 +13363,10 @@
         <v>1</v>
       </c>
       <c r="G347" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H347" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I347" s="11">
         <v>19</v>
@@ -13361,10 +13395,10 @@
         <v>2</v>
       </c>
       <c r="G348" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H348" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I348" s="11">
         <v>8</v>
@@ -13393,10 +13427,10 @@
         <v>1</v>
       </c>
       <c r="G349" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H349" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I349" s="11">
         <v>6</v>
@@ -13425,10 +13459,10 @@
         <v>2</v>
       </c>
       <c r="G350" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H350" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I350" s="11">
         <v>6</v>
@@ -13457,10 +13491,10 @@
         <v>1</v>
       </c>
       <c r="G351" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H351" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I351" s="11">
         <v>11</v>
@@ -13489,10 +13523,10 @@
         <v>2</v>
       </c>
       <c r="G352" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H352" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I352" s="11">
         <v>14</v>
@@ -13521,10 +13555,10 @@
         <v>1</v>
       </c>
       <c r="G353" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H353" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I353" s="11">
         <v>13</v>
@@ -13553,10 +13587,10 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H354" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I354" s="11">
         <v>11</v>
@@ -13585,10 +13619,10 @@
         <v>1</v>
       </c>
       <c r="G355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I355" s="11">
         <v>8</v>
@@ -13617,10 +13651,10 @@
         <v>2</v>
       </c>
       <c r="G356" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I356" s="11">
         <v>3</v>
@@ -13649,10 +13683,10 @@
         <v>1</v>
       </c>
       <c r="G357" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H357" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I357" s="11">
         <v>6</v>
@@ -13681,10 +13715,10 @@
         <v>2</v>
       </c>
       <c r="G358" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H358" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I358" s="11">
         <v>4</v>
@@ -13713,10 +13747,10 @@
         <v>1</v>
       </c>
       <c r="G359" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H359" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I359" s="11">
         <v>4</v>
@@ -13745,10 +13779,10 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H360" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I360" s="11">
         <v>12</v>
@@ -13777,10 +13811,10 @@
         <v>1</v>
       </c>
       <c r="G361" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H361" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I361" s="11">
         <v>9</v>
@@ -13809,10 +13843,10 @@
         <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H362" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I362" s="11">
         <v>9</v>
@@ -13841,10 +13875,10 @@
         <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H363" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I363" s="11">
         <v>6</v>
@@ -13873,10 +13907,10 @@
         <v>2</v>
       </c>
       <c r="G364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H364" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I364" s="11">
         <v>13</v>
@@ -13905,10 +13939,10 @@
         <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H365" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I365" s="11">
         <v>4</v>
@@ -13937,10 +13971,10 @@
         <v>2</v>
       </c>
       <c r="G366" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H366" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I366" s="11">
         <v>5</v>
@@ -13969,10 +14003,10 @@
         <v>1</v>
       </c>
       <c r="G367" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H367" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I367" s="11">
         <v>11</v>
@@ -14001,10 +14035,10 @@
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H368" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I368" s="11">
         <v>2</v>
@@ -14033,10 +14067,10 @@
         <v>1</v>
       </c>
       <c r="G369" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H369" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I369" s="11">
         <v>14</v>
@@ -14065,10 +14099,10 @@
         <v>2</v>
       </c>
       <c r="G370" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H370" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I370" s="11">
         <v>9</v>
@@ -14097,10 +14131,10 @@
         <v>1</v>
       </c>
       <c r="G371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H371" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I371" s="11">
         <v>16</v>
@@ -14129,10 +14163,10 @@
         <v>2</v>
       </c>
       <c r="G372" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I372" s="11">
         <v>11</v>
@@ -14161,10 +14195,10 @@
         <v>1</v>
       </c>
       <c r="G373" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H373" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I373" s="11">
         <v>15</v>
@@ -14193,10 +14227,10 @@
         <v>2</v>
       </c>
       <c r="G374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H374" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I374" s="11">
         <v>14</v>
@@ -14225,10 +14259,10 @@
         <v>1</v>
       </c>
       <c r="G375" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H375" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I375" s="11">
         <v>11</v>
@@ -14257,10 +14291,10 @@
         <v>2</v>
       </c>
       <c r="G376" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H376" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I376" s="11">
         <v>10</v>
@@ -14289,10 +14323,10 @@
         <v>1</v>
       </c>
       <c r="G377" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H377" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I377" s="11">
         <v>11</v>
@@ -14321,10 +14355,10 @@
         <v>2</v>
       </c>
       <c r="G378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H378" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I378" s="11">
         <v>8</v>
@@ -14353,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="G379" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H379" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I379" s="11">
         <v>10</v>
@@ -14385,10 +14419,10 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H380" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I380" s="11">
         <v>12</v>
@@ -14417,10 +14451,10 @@
         <v>1</v>
       </c>
       <c r="G381" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H381" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I381" s="11">
         <v>5</v>
@@ -14449,10 +14483,10 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H382" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I382" s="11">
         <v>20</v>
@@ -14481,10 +14515,10 @@
         <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H383" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I383" s="11">
         <v>59</v>
@@ -14513,10 +14547,10 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H384" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I384" s="11">
         <v>57</v>
@@ -14545,10 +14579,10 @@
         <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H385" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I385" s="11">
         <v>76</v>
@@ -14577,10 +14611,10 @@
         <v>2</v>
       </c>
       <c r="G386" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H386" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I386" s="11">
         <v>45</v>
@@ -14609,10 +14643,10 @@
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H387" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I387" s="11">
         <v>77</v>
@@ -14641,10 +14675,10 @@
         <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H388" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I388" s="11">
         <v>64</v>
@@ -14673,10 +14707,10 @@
         <v>1</v>
       </c>
       <c r="G389" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H389" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I389" s="11">
         <v>89</v>
@@ -14705,10 +14739,10 @@
         <v>2</v>
       </c>
       <c r="G390" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H390" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I390" s="11">
         <v>93</v>
@@ -14737,10 +14771,10 @@
         <v>1</v>
       </c>
       <c r="G391" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H391" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I391" s="11">
         <v>84</v>
@@ -14769,10 +14803,10 @@
         <v>2</v>
       </c>
       <c r="G392" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H392" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I392" s="11">
         <v>84</v>
@@ -14801,10 +14835,10 @@
         <v>1</v>
       </c>
       <c r="G393" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H393" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I393" s="11">
         <v>65</v>
@@ -14833,10 +14867,10 @@
         <v>2</v>
       </c>
       <c r="G394" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H394" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I394" s="11">
         <v>67</v>
@@ -14865,10 +14899,10 @@
         <v>1</v>
       </c>
       <c r="G395" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H395" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I395" s="11">
         <v>66</v>
@@ -14897,10 +14931,10 @@
         <v>2</v>
       </c>
       <c r="G396" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H396" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I396" s="11">
         <v>87</v>
@@ -14929,10 +14963,10 @@
         <v>1</v>
       </c>
       <c r="G397" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H397" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I397" s="11">
         <v>3</v>
@@ -14961,10 +14995,10 @@
         <v>2</v>
       </c>
       <c r="G398" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H398" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I398" s="11">
         <v>7</v>
@@ -14993,10 +15027,10 @@
         <v>1</v>
       </c>
       <c r="G399" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H399" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I399" s="11">
         <v>2</v>
@@ -15025,10 +15059,10 @@
         <v>2</v>
       </c>
       <c r="G400" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H400" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I400" s="11">
         <v>16</v>
@@ -15057,10 +15091,10 @@
         <v>1</v>
       </c>
       <c r="G401" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H401" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I401" s="11">
         <v>10</v>
@@ -15089,10 +15123,10 @@
         <v>2</v>
       </c>
       <c r="G402" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H402" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I402" s="11">
         <v>6</v>
@@ -15121,10 +15155,10 @@
         <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H403" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I403" s="11">
         <v>9</v>
@@ -15153,10 +15187,10 @@
         <v>2</v>
       </c>
       <c r="G404" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H404" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I404" s="11">
         <v>25</v>
@@ -15185,10 +15219,10 @@
         <v>1</v>
       </c>
       <c r="G405" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H405" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I405" s="11">
         <v>8</v>
@@ -15217,10 +15251,10 @@
         <v>2</v>
       </c>
       <c r="G406" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H406" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I406" s="11">
         <v>13</v>
@@ -15249,10 +15283,10 @@
         <v>1</v>
       </c>
       <c r="G407" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H407" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I407" s="11">
         <v>2</v>
@@ -15281,10 +15315,10 @@
         <v>2</v>
       </c>
       <c r="G408" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H408" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I408" s="11">
         <v>16</v>
@@ -15313,10 +15347,10 @@
         <v>1</v>
       </c>
       <c r="G409" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H409" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I409" s="11">
         <v>5</v>
@@ -15345,10 +15379,10 @@
         <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H410" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I410" s="11">
         <v>5</v>
@@ -15377,10 +15411,10 @@
         <v>1</v>
       </c>
       <c r="G411" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H411" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I411" s="11">
         <v>6</v>
@@ -15409,10 +15443,10 @@
         <v>2</v>
       </c>
       <c r="G412" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H412" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I412" s="11">
         <v>5</v>
@@ -15441,10 +15475,10 @@
         <v>1</v>
       </c>
       <c r="G413" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H413" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I413" s="11">
         <v>9</v>
@@ -15473,10 +15507,10 @@
         <v>2</v>
       </c>
       <c r="G414" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H414" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I414" s="11">
         <v>3</v>
@@ -15505,10 +15539,10 @@
         <v>1</v>
       </c>
       <c r="G415" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H415" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I415" s="11">
         <v>0</v>
@@ -15537,10 +15571,10 @@
         <v>2</v>
       </c>
       <c r="G416" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H416" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I416" s="11">
         <v>2</v>
@@ -15569,10 +15603,10 @@
         <v>1</v>
       </c>
       <c r="G417" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H417" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I417" s="11">
         <v>7</v>
@@ -15601,10 +15635,10 @@
         <v>2</v>
       </c>
       <c r="G418" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H418" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I418" s="11">
         <v>16</v>
@@ -15633,10 +15667,10 @@
         <v>1</v>
       </c>
       <c r="G419" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H419" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I419" s="11">
         <v>10</v>
@@ -15665,10 +15699,10 @@
         <v>2</v>
       </c>
       <c r="G420" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H420" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I420" s="11">
         <v>1</v>
@@ -15697,10 +15731,10 @@
         <v>1</v>
       </c>
       <c r="G421" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H421" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I421" s="11">
         <v>3</v>
@@ -15729,10 +15763,10 @@
         <v>2</v>
       </c>
       <c r="G422" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H422" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I422" s="11">
         <v>3</v>
@@ -15761,10 +15795,10 @@
         <v>1</v>
       </c>
       <c r="G423" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H423" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I423" s="11">
         <v>3</v>
@@ -15793,10 +15827,10 @@
         <v>2</v>
       </c>
       <c r="G424" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H424" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I424" s="11">
         <v>9</v>
@@ -15825,10 +15859,10 @@
         <v>1</v>
       </c>
       <c r="G425" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H425" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I425" s="11">
         <v>12</v>
@@ -15857,10 +15891,10 @@
         <v>2</v>
       </c>
       <c r="G426" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H426" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I426" s="11">
         <v>23</v>
@@ -15889,10 +15923,10 @@
         <v>1</v>
       </c>
       <c r="G427" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H427" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I427" s="11">
         <v>12</v>
@@ -15921,10 +15955,10 @@
         <v>2</v>
       </c>
       <c r="G428" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H428" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I428" s="11">
         <v>8</v>
@@ -15953,10 +15987,10 @@
         <v>1</v>
       </c>
       <c r="G429" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H429" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I429" s="11">
         <v>5</v>
@@ -15985,10 +16019,10 @@
         <v>2</v>
       </c>
       <c r="G430" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H430" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I430" s="11">
         <v>17</v>
@@ -16017,10 +16051,10 @@
         <v>1</v>
       </c>
       <c r="G431" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H431" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I431" s="11">
         <v>4</v>
@@ -16049,10 +16083,10 @@
         <v>2</v>
       </c>
       <c r="G432" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H432" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I432" s="11">
         <v>22</v>
@@ -16081,10 +16115,10 @@
         <v>1</v>
       </c>
       <c r="G433" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H433" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I433" s="11">
         <v>0</v>
@@ -16113,10 +16147,10 @@
         <v>2</v>
       </c>
       <c r="G434" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H434" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I434" s="11">
         <v>5</v>
@@ -16145,10 +16179,10 @@
         <v>1</v>
       </c>
       <c r="G435" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H435" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I435" s="11">
         <v>5</v>
@@ -16177,10 +16211,10 @@
         <v>2</v>
       </c>
       <c r="G436" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H436" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I436" s="11">
         <v>3</v>
@@ -16209,10 +16243,10 @@
         <v>1</v>
       </c>
       <c r="G437" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H437" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I437" s="11">
         <v>0</v>
@@ -16241,10 +16275,10 @@
         <v>2</v>
       </c>
       <c r="G438" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H438" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I438" s="11">
         <v>2</v>
@@ -16273,10 +16307,10 @@
         <v>1</v>
       </c>
       <c r="G439" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H439" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I439" s="11">
         <v>4</v>
@@ -16305,10 +16339,10 @@
         <v>2</v>
       </c>
       <c r="G440" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H440" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I440" s="11">
         <v>11</v>
@@ -16337,10 +16371,10 @@
         <v>1</v>
       </c>
       <c r="G441" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H441" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I441" s="11">
         <v>28</v>
@@ -16369,10 +16403,10 @@
         <v>2</v>
       </c>
       <c r="G442" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H442" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I442" s="11">
         <v>26</v>
@@ -16401,10 +16435,10 @@
         <v>1</v>
       </c>
       <c r="G443" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H443" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I443" s="11">
         <v>2</v>
@@ -16433,10 +16467,10 @@
         <v>2</v>
       </c>
       <c r="G444" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H444" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I444" s="11">
         <v>27</v>
@@ -16465,10 +16499,10 @@
         <v>1</v>
       </c>
       <c r="G445" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H445" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I445" s="11">
         <v>24</v>
@@ -16497,10 +16531,10 @@
         <v>2</v>
       </c>
       <c r="G446" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H446" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I446" s="11">
         <v>30</v>
@@ -16529,10 +16563,10 @@
         <v>1</v>
       </c>
       <c r="G447" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H447" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I447" s="11">
         <v>13</v>
@@ -16561,10 +16595,10 @@
         <v>2</v>
       </c>
       <c r="G448" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H448" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I448" s="11">
         <v>2</v>
@@ -16593,10 +16627,10 @@
         <v>1</v>
       </c>
       <c r="G449" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H449" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I449" s="11">
         <v>2</v>
@@ -16625,10 +16659,10 @@
         <v>2</v>
       </c>
       <c r="G450" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H450" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I450" s="11">
         <v>7</v>
@@ -16657,10 +16691,10 @@
         <v>1</v>
       </c>
       <c r="G451" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H451" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I451" s="11">
         <v>8</v>
@@ -16689,15 +16723,463 @@
         <v>2</v>
       </c>
       <c r="G452" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H452" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I452" s="11">
         <v>33</v>
       </c>
       <c r="J452">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <v>1038</v>
+      </c>
+      <c r="B453" t="s">
+        <v>43</v>
+      </c>
+      <c r="C453" s="10">
+        <v>44743.671211238427</v>
+      </c>
+      <c r="D453" s="10">
+        <v>44743.671321250004</v>
+      </c>
+      <c r="E453">
+        <v>5</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453" t="s">
+        <v>49</v>
+      </c>
+      <c r="H453" t="s">
+        <v>50</v>
+      </c>
+      <c r="I453" s="11">
+        <v>25</v>
+      </c>
+      <c r="J453">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <v>1038</v>
+      </c>
+      <c r="B454" t="s">
+        <v>43</v>
+      </c>
+      <c r="C454" s="10">
+        <v>44743.677116666666</v>
+      </c>
+      <c r="D454" s="10">
+        <v>44743.677213773146</v>
+      </c>
+      <c r="E454">
+        <v>10</v>
+      </c>
+      <c r="F454">
+        <v>2</v>
+      </c>
+      <c r="G454" t="s">
+        <v>49</v>
+      </c>
+      <c r="H454" t="s">
+        <v>50</v>
+      </c>
+      <c r="I454" s="11">
+        <v>27</v>
+      </c>
+      <c r="J454">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <v>1038</v>
+      </c>
+      <c r="B455" t="s">
+        <v>43</v>
+      </c>
+      <c r="C455" s="10">
+        <v>44743.667566493059</v>
+      </c>
+      <c r="D455" s="10">
+        <v>44743.667664583336</v>
+      </c>
+      <c r="E455">
+        <v>2</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455" t="s">
+        <v>53</v>
+      </c>
+      <c r="H455" t="s">
+        <v>54</v>
+      </c>
+      <c r="I455" s="11">
+        <v>14</v>
+      </c>
+      <c r="J455">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <v>1038</v>
+      </c>
+      <c r="B456" t="s">
+        <v>43</v>
+      </c>
+      <c r="C456" s="10">
+        <v>44743.678290231481</v>
+      </c>
+      <c r="D456" s="10">
+        <v>44743.678390856483</v>
+      </c>
+      <c r="E456">
+        <v>11</v>
+      </c>
+      <c r="F456">
+        <v>2</v>
+      </c>
+      <c r="G456" t="s">
+        <v>53</v>
+      </c>
+      <c r="H456" t="s">
+        <v>54</v>
+      </c>
+      <c r="I456" s="11">
+        <v>19</v>
+      </c>
+      <c r="J456">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <v>1038</v>
+      </c>
+      <c r="B457" t="s">
+        <v>43</v>
+      </c>
+      <c r="C457" s="10">
+        <v>44743.668759872686</v>
+      </c>
+      <c r="D457" s="10">
+        <v>44743.668910763889</v>
+      </c>
+      <c r="E457">
+        <v>3</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457" t="s">
+        <v>56</v>
+      </c>
+      <c r="H457" t="s">
+        <v>57</v>
+      </c>
+      <c r="I457" s="11">
+        <v>22</v>
+      </c>
+      <c r="J457">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <v>1038</v>
+      </c>
+      <c r="B458" t="s">
+        <v>43</v>
+      </c>
+      <c r="C458" s="10">
+        <v>44743.679484652777</v>
+      </c>
+      <c r="D458" s="10">
+        <v>44743.679626145837</v>
+      </c>
+      <c r="E458">
+        <v>12</v>
+      </c>
+      <c r="F458">
+        <v>2</v>
+      </c>
+      <c r="G458" t="s">
+        <v>56</v>
+      </c>
+      <c r="H458" t="s">
+        <v>57</v>
+      </c>
+      <c r="I458" s="11">
+        <v>23</v>
+      </c>
+      <c r="J458">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <v>1038</v>
+      </c>
+      <c r="B459" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459" s="10">
+        <v>44743.666324942133</v>
+      </c>
+      <c r="D459" s="10">
+        <v>44743.666445567127</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459" t="s">
+        <v>59</v>
+      </c>
+      <c r="H459" t="s">
+        <v>60</v>
+      </c>
+      <c r="I459" s="11">
+        <v>10</v>
+      </c>
+      <c r="J459">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <v>1038</v>
+      </c>
+      <c r="B460" t="s">
+        <v>43</v>
+      </c>
+      <c r="C460" s="10">
+        <v>44743.680716643517</v>
+      </c>
+      <c r="D460" s="10">
+        <v>44743.68083222222</v>
+      </c>
+      <c r="E460">
+        <v>13</v>
+      </c>
+      <c r="F460">
+        <v>2</v>
+      </c>
+      <c r="G460" t="s">
+        <v>59</v>
+      </c>
+      <c r="H460" t="s">
+        <v>60</v>
+      </c>
+      <c r="I460" s="11">
+        <v>20</v>
+      </c>
+      <c r="J460">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <v>1038</v>
+      </c>
+      <c r="B461" t="s">
+        <v>43</v>
+      </c>
+      <c r="C461" s="10">
+        <v>44743.670005023145</v>
+      </c>
+      <c r="D461" s="10">
+        <v>44743.670143449075</v>
+      </c>
+      <c r="E461">
+        <v>4</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461" t="s">
+        <v>62</v>
+      </c>
+      <c r="H461" t="s">
+        <v>63</v>
+      </c>
+      <c r="I461" s="11">
+        <v>22</v>
+      </c>
+      <c r="J461">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <v>1038</v>
+      </c>
+      <c r="B462" t="s">
+        <v>43</v>
+      </c>
+      <c r="C462" s="10">
+        <v>44743.67470447917</v>
+      </c>
+      <c r="D462" s="10">
+        <v>44743.674851296295</v>
+      </c>
+      <c r="E462">
+        <v>8</v>
+      </c>
+      <c r="F462">
+        <v>2</v>
+      </c>
+      <c r="G462" t="s">
+        <v>62</v>
+      </c>
+      <c r="H462" t="s">
+        <v>63</v>
+      </c>
+      <c r="I462" s="11">
+        <v>26</v>
+      </c>
+      <c r="J462">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <v>1038</v>
+      </c>
+      <c r="B463" t="s">
+        <v>43</v>
+      </c>
+      <c r="C463" s="10">
+        <v>44743.672365810184</v>
+      </c>
+      <c r="D463" s="10">
+        <v>44743.672465717595</v>
+      </c>
+      <c r="E463">
+        <v>6</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463" t="s">
+        <v>65</v>
+      </c>
+      <c r="H463" t="s">
+        <v>66</v>
+      </c>
+      <c r="I463" s="11">
+        <v>27</v>
+      </c>
+      <c r="J463">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <v>1038</v>
+      </c>
+      <c r="B464" t="s">
+        <v>43</v>
+      </c>
+      <c r="C464" s="10">
+        <v>44743.675936458334</v>
+      </c>
+      <c r="D464" s="10">
+        <v>44743.676039988422</v>
+      </c>
+      <c r="E464">
+        <v>9</v>
+      </c>
+      <c r="F464">
+        <v>2</v>
+      </c>
+      <c r="G464" t="s">
+        <v>65</v>
+      </c>
+      <c r="H464" t="s">
+        <v>66</v>
+      </c>
+      <c r="I464" s="11">
+        <v>21</v>
+      </c>
+      <c r="J464">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <v>1038</v>
+      </c>
+      <c r="B465" t="s">
+        <v>43</v>
+      </c>
+      <c r="C465" s="10">
+        <v>44743.673521921293</v>
+      </c>
+      <c r="D465" s="10">
+        <v>44743.673628599536</v>
+      </c>
+      <c r="E465">
+        <v>7</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465" t="s">
+        <v>68</v>
+      </c>
+      <c r="H465" t="s">
+        <v>69</v>
+      </c>
+      <c r="I465" s="11">
+        <v>20</v>
+      </c>
+      <c r="J465">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <v>1038</v>
+      </c>
+      <c r="B466" t="s">
+        <v>43</v>
+      </c>
+      <c r="C466" s="10">
+        <v>44743.681920439813</v>
+      </c>
+      <c r="D466" s="10">
+        <v>44743.682035266203</v>
+      </c>
+      <c r="E466">
+        <v>14</v>
+      </c>
+      <c r="F466">
+        <v>2</v>
+      </c>
+      <c r="G466" t="s">
+        <v>68</v>
+      </c>
+      <c r="H466" t="s">
+        <v>69</v>
+      </c>
+      <c r="I466" s="11">
+        <v>17</v>
+      </c>
+      <c r="J466">
         <v>15</v>
       </c>
     </row>
@@ -16709,7 +17191,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J452" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J466" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>